--- a/設計書/Book1.xlsx
+++ b/設計書/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20544" windowHeight="9168" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -357,19 +357,6 @@
     <rPh sb="4" eb="6">
       <t>オオヌマ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケント</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成者:大沼賢斗</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オオヌマ</t>
-    </rPh>
     <rPh sb="6" eb="7">
       <t>ケン</t>
     </rPh>
@@ -415,6 +402,19 @@
     <t>投稿マスタ</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面から登録画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -847,15 +847,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>115455</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>130003</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>412635</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>122383</xdr:rowOff>
+      <xdr:colOff>551180</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>58884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -878,8 +878,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="115455" y="591821"/>
-          <a:ext cx="9672089" cy="5996017"/>
+          <a:off x="254000" y="7142218"/>
+          <a:ext cx="9568180" cy="5888809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,15 +891,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>230232</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>224064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:colOff>291192</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>155485</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -908,8 +908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7743190" y="6089650"/>
-          <a:ext cx="2080260" cy="388620"/>
+          <a:off x="7514589" y="12515850"/>
+          <a:ext cx="2047603" cy="384992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,14 +955,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -986,8 +986,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="198120" y="7295342"/>
-          <a:ext cx="9664469" cy="5901113"/>
+          <a:off x="0" y="608874"/>
+          <a:ext cx="9560560" cy="5793906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -998,16 +998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>198813</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19973</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>643313</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>343593</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>182302</xdr:rowOff>
+      <xdr:colOff>125879</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>73445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1016,8 +1016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8234449" y="12719973"/>
-          <a:ext cx="1484053" cy="393238"/>
+          <a:off x="7927670" y="5825687"/>
+          <a:ext cx="1469209" cy="389115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,13 +1845,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1883,13 +1883,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1921,14 +1921,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>544340</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>7619</xdr:rowOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>7618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1959,13 +1959,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1997,14 +1997,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>396008</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2571,9 +2571,9 @@
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2616,14 +2616,14 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" t="s">
         <v>29</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" t="s">
         <v>31</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" t="s">
         <v>33</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" t="s">
         <v>35</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" t="s">
         <v>37</v>
       </c>
@@ -2730,14 +2730,14 @@
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="8.796875" customWidth="1"/>
-    <col min="4" max="6" width="9.796875" customWidth="1"/>
-    <col min="14" max="14" width="9.09765625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="6" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -2781,7 +2781,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2798,7 +2798,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2815,7 +2815,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2832,7 +2832,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2849,7 +2849,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2866,7 +2866,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2883,7 +2883,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2900,7 +2900,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2917,7 +2917,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2934,7 +2934,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2951,7 +2951,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2968,7 +2968,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2985,7 +2985,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3002,7 +3002,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3019,7 +3019,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3036,7 +3036,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3053,7 +3053,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3070,7 +3070,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3087,7 +3087,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3104,7 +3104,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3121,7 +3121,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3138,7 +3138,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3155,7 +3155,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3172,7 +3172,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3189,7 +3189,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3206,7 +3206,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3246,20 +3246,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q98" sqref="Q98"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
@@ -3272,12 +3272,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -3296,7 +3296,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3313,7 +3313,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3330,7 +3330,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3347,7 +3347,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3364,7 +3364,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3381,7 +3381,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3398,7 +3398,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3415,7 +3415,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3432,7 +3432,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3449,7 +3449,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3466,7 +3466,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3483,7 +3483,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3500,7 +3500,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3517,7 +3517,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3534,7 +3534,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3551,7 +3551,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3568,7 +3568,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3585,7 +3585,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3602,7 +3602,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3619,7 +3619,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3636,7 +3636,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3653,7 +3653,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3670,7 +3670,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3687,7 +3687,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3704,7 +3704,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3721,7 +3721,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3738,7 +3738,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3755,14 +3755,14 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
@@ -3775,12 +3775,12 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -3799,7 +3799,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3816,7 +3816,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3833,7 +3833,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3850,7 +3850,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3867,7 +3867,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3884,7 +3884,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3901,7 +3901,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3918,7 +3918,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3935,7 +3935,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3952,7 +3952,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3969,7 +3969,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3986,7 +3986,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4003,7 +4003,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4020,7 +4020,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4037,7 +4037,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4054,7 +4054,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4071,7 +4071,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4088,7 +4088,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4105,7 +4105,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4122,7 +4122,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4139,7 +4139,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4156,7 +4156,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4173,7 +4173,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4190,7 +4190,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4207,7 +4207,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4224,7 +4224,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4241,7 +4241,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4258,7 +4258,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
@@ -4283,7 +4283,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -4302,7 +4302,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4319,7 +4319,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4336,7 +4336,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4353,7 +4353,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4370,7 +4370,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4387,7 +4387,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4404,7 +4404,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4421,7 +4421,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4438,7 +4438,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4455,7 +4455,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4472,7 +4472,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4489,7 +4489,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4506,7 +4506,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4523,7 +4523,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4540,7 +4540,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4557,7 +4557,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4574,7 +4574,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4591,7 +4591,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4608,7 +4608,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4625,7 +4625,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4642,7 +4642,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4659,7 +4659,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4676,7 +4676,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4693,7 +4693,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4710,7 +4710,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4727,7 +4727,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4744,7 +4744,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4761,7 +4761,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="10" t="s">
         <v>7</v>
       </c>
@@ -4781,12 +4781,12 @@
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
       <c r="M88" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -4805,7 +4805,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4822,7 +4822,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4839,7 +4839,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4856,7 +4856,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4873,7 +4873,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4890,7 +4890,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4907,7 +4907,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4924,7 +4924,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4941,7 +4941,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4958,7 +4958,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4975,7 +4975,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4992,7 +4992,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5009,7 +5009,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5026,7 +5026,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5043,7 +5043,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5060,7 +5060,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5077,7 +5077,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5094,7 +5094,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5111,7 +5111,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5128,7 +5128,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5145,7 +5145,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5162,7 +5162,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5179,7 +5179,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5196,7 +5196,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5213,7 +5213,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5230,7 +5230,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5247,7 +5247,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5264,7 +5264,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A117" s="10" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="N117" s="17"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -5308,7 +5308,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5325,7 +5325,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5342,7 +5342,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5359,7 +5359,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5376,7 +5376,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5393,7 +5393,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5410,7 +5410,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5427,7 +5427,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5444,7 +5444,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5461,7 +5461,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5478,7 +5478,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5495,7 +5495,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5512,7 +5512,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5529,7 +5529,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5546,7 +5546,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5563,7 +5563,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5580,7 +5580,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5597,7 +5597,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5614,7 +5614,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5631,7 +5631,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5648,7 +5648,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5665,7 +5665,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5682,7 +5682,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5699,7 +5699,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5716,7 +5716,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5733,7 +5733,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5750,7 +5750,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5767,7 +5767,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A146" s="10" t="s">
         <v>7</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="N146" s="17"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
@@ -5811,7 +5811,7 @@
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5828,7 +5828,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5845,7 +5845,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5862,7 +5862,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5879,7 +5879,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5896,7 +5896,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5913,7 +5913,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5930,7 +5930,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5947,7 +5947,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5964,7 +5964,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5981,7 +5981,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5998,7 +5998,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6015,7 +6015,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6032,7 +6032,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6049,7 +6049,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6066,7 +6066,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6083,7 +6083,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6100,7 +6100,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6117,7 +6117,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6134,7 +6134,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6151,7 +6151,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6168,7 +6168,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6185,7 +6185,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6202,7 +6202,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6219,7 +6219,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6236,7 +6236,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6253,7 +6253,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6270,7 +6270,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A175" s="10" t="s">
         <v>7</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="N175" s="17"/>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
@@ -6314,7 +6314,7 @@
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6331,7 +6331,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6348,7 +6348,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6365,7 +6365,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6382,7 +6382,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6399,7 +6399,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6416,7 +6416,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6433,7 +6433,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6450,7 +6450,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6467,7 +6467,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6484,7 +6484,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6501,7 +6501,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6518,7 +6518,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6535,7 +6535,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6552,7 +6552,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6569,7 +6569,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6586,7 +6586,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6603,7 +6603,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6620,7 +6620,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6637,7 +6637,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6654,7 +6654,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6671,7 +6671,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6688,7 +6688,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6705,7 +6705,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6722,7 +6722,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6739,7 +6739,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6756,7 +6756,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -6773,7 +6773,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A204" s="10" t="s">
         <v>7</v>
       </c>
@@ -6798,7 +6798,7 @@
       <c r="N204" s="17"/>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="15"/>
@@ -6817,7 +6817,7 @@
       <c r="N205" s="17"/>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6834,7 +6834,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6851,7 +6851,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6868,7 +6868,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6885,7 +6885,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6902,7 +6902,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6919,7 +6919,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6936,7 +6936,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6953,7 +6953,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6970,7 +6970,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6987,7 +6987,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7004,7 +7004,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7021,7 +7021,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7038,7 +7038,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7055,7 +7055,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7072,7 +7072,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7089,7 +7089,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7106,7 +7106,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7123,7 +7123,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7140,7 +7140,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7157,7 +7157,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7174,7 +7174,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7191,7 +7191,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7208,7 +7208,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7225,7 +7225,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7242,7 +7242,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7259,7 +7259,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7276,7 +7276,7 @@
       <c r="N232" s="5"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A233" s="10" t="s">
         <v>7</v>
       </c>
@@ -7301,7 +7301,7 @@
       <c r="N233" s="17"/>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="15"/>
@@ -7320,7 +7320,7 @@
       <c r="N234" s="17"/>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7337,7 +7337,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7354,7 +7354,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7371,7 +7371,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7388,7 +7388,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7405,7 +7405,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7422,7 +7422,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7439,7 +7439,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7456,7 +7456,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7473,7 +7473,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7490,7 +7490,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7507,7 +7507,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7524,7 +7524,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7541,7 +7541,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7558,7 +7558,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7575,7 +7575,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7592,7 +7592,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7609,7 +7609,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7626,7 +7626,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7643,7 +7643,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7660,7 +7660,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7677,7 +7677,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7694,7 +7694,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7711,7 +7711,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7728,7 +7728,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7745,7 +7745,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7762,7 +7762,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7779,7 +7779,7 @@
       <c r="N261" s="5"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A262" s="10" t="s">
         <v>7</v>
       </c>
@@ -7799,12 +7799,12 @@
       <c r="K262" s="11"/>
       <c r="L262" s="11"/>
       <c r="M262" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N262" s="17"/>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="15"/>
@@ -7823,7 +7823,7 @@
       <c r="N263" s="17"/>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7840,7 +7840,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7857,7 +7857,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7874,7 +7874,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7891,7 +7891,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7908,7 +7908,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7925,7 +7925,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7942,7 +7942,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -7959,7 +7959,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7976,7 +7976,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7993,7 +7993,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8010,7 +8010,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8027,7 +8027,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8044,7 +8044,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8061,7 +8061,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8078,7 +8078,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8095,7 +8095,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8112,7 +8112,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8129,7 +8129,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8146,7 +8146,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8163,7 +8163,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8180,7 +8180,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8197,7 +8197,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8214,7 +8214,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8231,7 +8231,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8248,7 +8248,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8265,7 +8265,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8284,56 +8284,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
     <mergeCell ref="A262:C263"/>
     <mergeCell ref="D262:F263"/>
     <mergeCell ref="G262:L263"/>
     <mergeCell ref="M262:O262"/>
     <mergeCell ref="M263:O263"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8359,22 +8359,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O174"/>
+  <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q9" sqref="P9:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="19" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
@@ -8385,14 +8385,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="16" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -8404,14 +8404,14 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="16" t="s">
         <v>42</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8428,7 +8428,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8445,7 +8445,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8462,7 +8462,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8479,7 +8479,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8496,7 +8496,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -8513,7 +8513,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8530,7 +8530,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -8547,7 +8547,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8564,7 +8564,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8581,7 +8581,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8598,7 +8598,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8615,7 +8615,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8632,7 +8632,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8649,7 +8649,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8666,7 +8666,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8683,7 +8683,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8700,7 +8700,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8717,7 +8717,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8734,7 +8734,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8751,7 +8751,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8768,7 +8768,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8785,7 +8785,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8802,7 +8802,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8819,7 +8819,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8836,7 +8836,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8853,85 +8853,85 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="10" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="19" t="s">
-        <v>14</v>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="19" t="s">
+        <v>15</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="10" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="18"/>
-    </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="17"/>
+      <c r="O32" s="18"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8948,7 +8948,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8965,7 +8965,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8982,7 +8982,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8999,7 +8999,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9016,7 +9016,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9033,7 +9033,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9050,7 +9050,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9067,7 +9067,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9084,7 +9084,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9101,7 +9101,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9118,7 +9118,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9135,7 +9135,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9152,7 +9152,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9169,7 +9169,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9186,7 +9186,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9203,7 +9203,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9220,7 +9220,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9237,7 +9237,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9254,7 +9254,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -9271,7 +9271,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -9288,7 +9288,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -9305,7 +9305,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9322,7 +9322,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -9339,7 +9339,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -9356,85 +9356,85 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="6"/>
-    </row>
-    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="10" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="19" t="s">
-        <v>16</v>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="19" t="s">
+        <v>14</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="10" t="s">
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N59" s="17"/>
-      <c r="O59" s="18"/>
-    </row>
-    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
       <c r="M60" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" s="17"/>
+      <c r="O61" s="18"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -9451,7 +9451,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -9468,7 +9468,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -9485,7 +9485,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -9502,7 +9502,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9519,7 +9519,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9536,7 +9536,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9553,7 +9553,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9570,7 +9570,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9587,7 +9587,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9604,7 +9604,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9621,7 +9621,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -9638,7 +9638,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -9655,7 +9655,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -9672,7 +9672,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -9689,7 +9689,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -9706,7 +9706,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -9723,7 +9723,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -9740,7 +9740,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -9757,7 +9757,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -9774,7 +9774,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -9791,7 +9791,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -9808,7 +9808,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -9825,7 +9825,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -9842,7 +9842,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -9859,85 +9859,85 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="6"/>
-    </row>
-    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="10" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="6"/>
+    </row>
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="19" t="s">
-        <v>17</v>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="19" t="s">
+        <v>16</v>
       </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="10" t="s">
+      <c r="E89" s="20"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="16" t="s">
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="N88" s="17"/>
-      <c r="O88" s="18"/>
-    </row>
-    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N90" s="17"/>
+      <c r="O90" s="18"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -9954,7 +9954,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -9971,7 +9971,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -9988,7 +9988,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -10005,7 +10005,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -10022,7 +10022,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -10039,7 +10039,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10056,7 +10056,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -10073,7 +10073,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10090,7 +10090,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10107,7 +10107,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10124,7 +10124,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10141,7 +10141,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10158,7 +10158,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10175,7 +10175,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10192,7 +10192,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10209,7 +10209,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10226,7 +10226,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10243,7 +10243,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10260,7 +10260,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10277,7 +10277,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -10294,7 +10294,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -10311,7 +10311,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -10328,7 +10328,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -10345,7 +10345,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -10362,85 +10362,85 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A116" s="4"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="6"/>
-    </row>
-    <row r="117" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A117" s="10" t="s">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="3"/>
+    </row>
+    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="6"/>
+    </row>
+    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A118" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="19" t="s">
-        <v>18</v>
+      <c r="B118" s="11"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="19" t="s">
+        <v>17</v>
       </c>
-      <c r="E117" s="20"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="10" t="s">
+      <c r="E118" s="20"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="16" t="s">
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="N117" s="17"/>
-      <c r="O117" s="18"/>
-    </row>
-    <row r="118" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
-      <c r="L118" s="14"/>
-      <c r="M118" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="3"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N119" s="17"/>
+      <c r="O119" s="18"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -10457,7 +10457,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -10474,7 +10474,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -10491,7 +10491,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -10508,7 +10508,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -10525,7 +10525,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -10542,7 +10542,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -10559,7 +10559,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -10576,7 +10576,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -10593,7 +10593,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -10610,7 +10610,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -10627,7 +10627,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -10644,7 +10644,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -10661,7 +10661,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -10678,7 +10678,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -10695,7 +10695,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -10712,7 +10712,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10729,7 +10729,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -10746,7 +10746,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -10763,7 +10763,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -10780,7 +10780,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -10797,7 +10797,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -10814,7 +10814,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -10831,7 +10831,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -10848,7 +10848,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -10865,85 +10865,85 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A145" s="4"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="6"/>
-    </row>
-    <row r="146" spans="1:15" ht="18.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A146" s="10" t="s">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="6"/>
+    </row>
+    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A147" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="19" t="s">
-        <v>11</v>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="19" t="s">
+        <v>18</v>
       </c>
-      <c r="E146" s="20"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="10" t="s">
+      <c r="E147" s="20"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="11"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N146" s="17"/>
-      <c r="O146" s="18"/>
-    </row>
-    <row r="147" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A147" s="13"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
-      <c r="K147" s="14"/>
-      <c r="L147" s="15"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
       <c r="M147" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A148" s="1"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="3"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A148" s="13"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N148" s="17"/>
+      <c r="O148" s="18"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -10960,7 +10960,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -10977,7 +10977,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -10994,7 +10994,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -11011,7 +11011,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -11028,7 +11028,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -11045,7 +11045,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -11062,7 +11062,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -11079,7 +11079,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -11096,7 +11096,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -11113,7 +11113,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -11130,7 +11130,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -11147,7 +11147,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -11164,7 +11164,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -11181,7 +11181,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -11198,7 +11198,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -11215,7 +11215,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -11232,7 +11232,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -11249,7 +11249,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -11266,7 +11266,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -11283,7 +11283,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -11300,7 +11300,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -11317,7 +11317,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -11334,7 +11334,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -11351,7 +11351,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -11368,55 +11368,597 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A174" s="4"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
-      <c r="K174" s="5"/>
-      <c r="L174" s="5"/>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5"/>
-      <c r="O174" s="6"/>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="3"/>
+    </row>
+    <row r="175" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A175" s="4"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="5"/>
+      <c r="O175" s="6"/>
+    </row>
+    <row r="176" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A176" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="11"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="20"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N176" s="17"/>
+      <c r="O176" s="18"/>
+    </row>
+    <row r="177" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A177" s="13"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="14"/>
+      <c r="K177" s="14"/>
+      <c r="L177" s="15"/>
+      <c r="M177" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N177" s="17"/>
+      <c r="O177" s="18"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="3"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="3"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="3"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="3"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="3"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="3"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="3"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="3"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="3"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="3"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="3"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="3"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="3"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="3"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="3"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="3"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="3"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="3"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="3"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="1"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="3"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="3"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="3"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="3"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="3"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="1"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="3"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="3"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="1"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="3"/>
+    </row>
+    <row r="205" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A205" s="4"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="5"/>
+      <c r="M205" s="5"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
+  <mergeCells count="35">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="D60:F61"/>
+    <mergeCell ref="G60:L61"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
     <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A118:C119"/>
+    <mergeCell ref="D118:F119"/>
+    <mergeCell ref="G118:L119"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="A89:C90"/>
+    <mergeCell ref="D89:F90"/>
+    <mergeCell ref="G89:L90"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="A176:C177"/>
+    <mergeCell ref="D176:F177"/>
+    <mergeCell ref="G176:L177"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="M177:O177"/>
+    <mergeCell ref="A147:C148"/>
+    <mergeCell ref="D147:F148"/>
+    <mergeCell ref="G147:L148"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="M148:O148"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11426,11 +11968,11 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="5" manualBreakCount="5">
-    <brk id="29" max="16383" man="1"/>
-    <brk id="58" max="16383" man="1"/>
-    <brk id="87" max="16383" man="1"/>
-    <brk id="116" max="16383" man="1"/>
-    <brk id="145" max="16383" man="1"/>
+    <brk id="59" max="16383" man="1"/>
+    <brk id="88" max="16383" man="1"/>
+    <brk id="117" max="16383" man="1"/>
+    <brk id="146" max="16383" man="1"/>
+    <brk id="175" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11440,13 +11982,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
@@ -11466,12 +12008,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -11490,7 +12032,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11507,7 +12049,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11524,7 +12066,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -11541,7 +12083,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11558,7 +12100,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -11575,7 +12117,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11592,7 +12134,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11609,7 +12151,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -11626,7 +12168,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11643,7 +12185,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -11660,7 +12202,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -11677,7 +12219,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -11694,7 +12236,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -11711,7 +12253,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -11728,7 +12270,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -11745,7 +12287,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -11762,7 +12304,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11779,7 +12321,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -11796,7 +12338,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -11813,7 +12355,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -11830,7 +12372,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -11847,7 +12389,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -11864,7 +12406,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -11881,7 +12423,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -11898,7 +12440,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11915,7 +12457,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -11932,7 +12474,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -11949,14 +12491,14 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
@@ -11969,12 +12511,12 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -11993,7 +12535,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -12010,7 +12552,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -12027,7 +12569,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -12044,7 +12586,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -12061,7 +12603,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -12078,7 +12620,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -12095,7 +12637,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -12112,7 +12654,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -12129,7 +12671,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -12146,7 +12688,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -12163,7 +12705,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -12180,7 +12722,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -12197,7 +12739,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -12214,7 +12756,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -12231,7 +12773,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -12248,7 +12790,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -12265,7 +12807,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -12282,7 +12824,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -12299,7 +12841,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -12316,7 +12858,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -12333,7 +12875,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -12350,7 +12892,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -12367,7 +12909,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -12384,7 +12926,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -12401,7 +12943,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -12418,7 +12960,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -12435,7 +12977,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12452,7 +12994,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="10" t="s">
         <v>19</v>
       </c>
@@ -12472,12 +13014,12 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -12496,7 +13038,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -12513,7 +13055,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -12530,7 +13072,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -12547,7 +13089,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -12564,7 +13106,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -12581,7 +13123,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -12598,7 +13140,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -12615,7 +13157,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -12632,7 +13174,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -12649,7 +13191,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -12666,7 +13208,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -12683,7 +13225,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -12700,7 +13242,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -12717,7 +13259,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -12734,7 +13276,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -12751,7 +13293,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -12768,7 +13310,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -12785,7 +13327,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -12802,7 +13344,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -12819,7 +13361,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -12836,7 +13378,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -12853,7 +13395,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -12870,7 +13412,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -12887,7 +13429,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -12904,7 +13446,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -12921,7 +13463,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -12938,7 +13480,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12955,7 +13497,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="10" t="s">
         <v>19</v>
       </c>
@@ -12975,12 +13517,12 @@
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
       <c r="M88" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -12999,7 +13541,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -13016,7 +13558,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -13033,7 +13575,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -13050,7 +13592,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -13067,7 +13609,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -13084,7 +13626,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -13101,7 +13643,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -13118,7 +13660,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -13135,7 +13677,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -13152,7 +13694,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -13169,7 +13711,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -13186,7 +13728,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -13203,7 +13745,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -13220,7 +13762,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -13237,7 +13779,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -13254,7 +13796,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -13271,7 +13813,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -13288,7 +13830,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -13305,7 +13847,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -13322,7 +13864,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -13339,7 +13881,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -13356,7 +13898,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -13373,7 +13915,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -13390,7 +13932,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -13407,7 +13949,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -13424,7 +13966,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13443,26 +13985,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
     <mergeCell ref="A88:C89"/>
     <mergeCell ref="D88:F89"/>
     <mergeCell ref="G88:L89"/>
     <mergeCell ref="M88:O88"/>
     <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13488,9 +14030,9 @@
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
@@ -13510,12 +14052,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -13534,7 +14076,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13551,7 +14093,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -13568,7 +14110,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -13585,7 +14127,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -13602,7 +14144,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -13619,7 +14161,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -13636,7 +14178,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -13653,7 +14195,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -13670,7 +14212,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13687,7 +14229,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -13704,7 +14246,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -13721,7 +14263,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -13738,7 +14280,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -13755,7 +14297,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -13772,7 +14314,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -13789,7 +14331,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -13806,7 +14348,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -13823,7 +14365,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -13840,7 +14382,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13857,7 +14399,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -13874,7 +14416,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -13891,7 +14433,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -13908,7 +14450,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13925,7 +14467,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -13942,7 +14484,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -13959,7 +14501,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -13976,7 +14518,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -14016,13 +14558,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
@@ -14045,7 +14587,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -14064,7 +14606,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14081,7 +14623,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14098,7 +14640,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14115,7 +14657,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -14132,7 +14674,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -14149,7 +14691,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -14166,13 +14708,13 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -14185,7 +14727,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -14202,7 +14744,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -14219,7 +14761,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -14236,7 +14778,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -14253,7 +14795,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -14270,7 +14812,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -14287,7 +14829,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -14304,7 +14846,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -14321,7 +14863,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -14338,7 +14880,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -14355,7 +14897,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -14372,7 +14914,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -14389,7 +14931,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -14406,7 +14948,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -14423,7 +14965,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -14440,7 +14982,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -14457,7 +14999,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -14474,7 +15016,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -14491,7 +15033,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -14508,7 +15050,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>

--- a/設計書/Book1.xlsx
+++ b/設計書/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="9165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -418,6 +418,20 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>設定モーダルから、
+各リンクへの遷移</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -600,7 +614,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +689,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1843,120 +1875,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="53340" y="1379220"/>
-          <a:ext cx="9951720" cy="3489960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30480" y="7825740"/>
-          <a:ext cx="9936480" cy="3558540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>544340</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>7618</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="106680" y="21579840"/>
-          <a:ext cx="9825500" cy="4572000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>150</xdr:row>
@@ -1976,7 +1894,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1996,19 +1914,133 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>396008</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>155402</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1552575"/>
+          <a:ext cx="9451802" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="9277351"/>
+          <a:ext cx="9705975" cy="2916106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>325181</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="15925800"/>
+          <a:ext cx="9535856" cy="3496163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>294901</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2021,8 +2053,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="203200" y="14909800"/>
-          <a:ext cx="9438408" cy="3810000"/>
+          <a:off x="257175" y="22736174"/>
+          <a:ext cx="9638926" cy="3781425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358659</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="29775149"/>
+          <a:ext cx="9778884" cy="3629025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>640656</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457199" y="43548300"/>
+          <a:ext cx="9098857" cy="3800475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317202</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="50063400"/>
+          <a:ext cx="9680277" cy="5505450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2571,9 +2717,9 @@
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -2590,7 +2736,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
@@ -2607,7 +2753,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
       <c r="E29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2616,14 +2762,14 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
         <v>29</v>
       </c>
@@ -2638,7 +2784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
         <v>31</v>
       </c>
@@ -2653,7 +2799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>33</v>
       </c>
@@ -2668,7 +2814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
         <v>35</v>
       </c>
@@ -2683,7 +2829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
         <v>37</v>
       </c>
@@ -2730,14 +2876,14 @@
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="6" width="9.83203125" customWidth="1"/>
-    <col min="14" max="14" width="9.08203125" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="6" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2908,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -2781,7 +2927,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2798,7 +2944,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2815,7 +2961,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2832,7 +2978,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2849,7 +2995,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2866,7 +3012,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2883,7 +3029,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2900,7 +3046,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2917,7 +3063,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2934,7 +3080,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2951,7 +3097,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2968,7 +3114,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2985,7 +3131,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3002,7 +3148,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3019,7 +3165,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3036,7 +3182,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3053,7 +3199,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3070,7 +3216,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3087,7 +3233,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3104,7 +3250,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3121,7 +3267,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3138,7 +3284,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3155,7 +3301,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3172,7 +3318,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3189,7 +3335,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3206,7 +3352,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3250,9 +3396,9 @@
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3423,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -3296,7 +3442,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3313,7 +3459,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3330,7 +3476,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3347,7 +3493,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3364,7 +3510,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3381,7 +3527,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3398,7 +3544,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3415,7 +3561,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3432,7 +3578,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3449,7 +3595,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3466,7 +3612,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3483,7 +3629,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3500,7 +3646,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3517,7 +3663,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3534,7 +3680,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3551,7 +3697,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3568,7 +3714,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3585,7 +3731,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3602,7 +3748,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3619,7 +3765,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3636,7 +3782,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3653,7 +3799,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3670,7 +3816,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3687,7 +3833,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3704,7 +3850,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3721,7 +3867,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3738,7 +3884,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3755,7 +3901,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -3780,7 +3926,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -3799,7 +3945,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3816,7 +3962,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3833,7 +3979,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3850,7 +3996,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3867,7 +4013,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3884,7 +4030,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3901,7 +4047,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3918,7 +4064,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3935,7 +4081,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3952,7 +4098,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3969,7 +4115,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3986,7 +4132,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4003,7 +4149,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4020,7 +4166,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4037,7 +4183,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4054,7 +4200,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4071,7 +4217,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4088,7 +4234,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4105,7 +4251,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4122,7 +4268,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4139,7 +4285,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4156,7 +4302,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4173,7 +4319,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4190,7 +4336,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4207,7 +4353,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4224,7 +4370,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4241,7 +4387,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4258,7 +4404,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
@@ -4283,7 +4429,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -4302,7 +4448,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4319,7 +4465,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4336,7 +4482,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4353,7 +4499,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4370,7 +4516,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4387,7 +4533,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4404,7 +4550,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4421,7 +4567,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4438,7 +4584,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4455,7 +4601,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4472,7 +4618,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4489,7 +4635,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4506,7 +4652,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4523,7 +4669,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4540,7 +4686,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4557,7 +4703,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4574,7 +4720,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4591,7 +4737,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4608,7 +4754,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4625,7 +4771,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4642,7 +4788,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4659,7 +4805,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4676,7 +4822,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4693,7 +4839,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4710,7 +4856,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4727,7 +4873,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4744,7 +4890,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4761,7 +4907,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="10" t="s">
         <v>7</v>
       </c>
@@ -4786,7 +4932,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -4805,7 +4951,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4822,7 +4968,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4839,7 +4985,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4856,7 +5002,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4873,7 +5019,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4890,7 +5036,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4907,7 +5053,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4924,7 +5070,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4941,7 +5087,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4958,7 +5104,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4975,7 +5121,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4992,7 +5138,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5009,7 +5155,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5026,7 +5172,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5043,7 +5189,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5060,7 +5206,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5077,7 +5223,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5094,7 +5240,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5111,7 +5257,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5128,7 +5274,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5145,7 +5291,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5162,7 +5308,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5179,7 +5325,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5196,7 +5342,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5213,7 +5359,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5230,7 +5376,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5247,7 +5393,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5264,7 +5410,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5435,7 @@
       <c r="N117" s="17"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -5308,7 +5454,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5325,7 +5471,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5342,7 +5488,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5359,7 +5505,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5376,7 +5522,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5393,7 +5539,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5410,7 +5556,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5427,7 +5573,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5444,7 +5590,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5461,7 +5607,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5478,7 +5624,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5495,7 +5641,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5512,7 +5658,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5529,7 +5675,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5546,7 +5692,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5563,7 +5709,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5580,7 +5726,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5597,7 +5743,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5614,7 +5760,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5631,7 +5777,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5648,7 +5794,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5665,7 +5811,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5682,7 +5828,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5699,7 +5845,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5716,7 +5862,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5733,7 +5879,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5750,7 +5896,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5767,7 +5913,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="10" t="s">
         <v>7</v>
       </c>
@@ -5792,7 +5938,7 @@
       <c r="N146" s="17"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
@@ -5811,7 +5957,7 @@
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5828,7 +5974,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5845,7 +5991,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5862,7 +6008,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5879,7 +6025,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5896,7 +6042,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5913,7 +6059,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5930,7 +6076,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5947,7 +6093,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5964,7 +6110,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5981,7 +6127,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5998,7 +6144,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6015,7 +6161,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6032,7 +6178,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6049,7 +6195,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6066,7 +6212,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6083,7 +6229,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6100,7 +6246,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6117,7 +6263,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6134,7 +6280,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6151,7 +6297,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6168,7 +6314,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6185,7 +6331,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6202,7 +6348,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6219,7 +6365,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6236,7 +6382,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6253,7 +6399,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6270,7 +6416,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="10" t="s">
         <v>7</v>
       </c>
@@ -6295,7 +6441,7 @@
       <c r="N175" s="17"/>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
@@ -6314,7 +6460,7 @@
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6331,7 +6477,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6348,7 +6494,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6365,7 +6511,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6382,7 +6528,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6399,7 +6545,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6416,7 +6562,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6433,7 +6579,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6450,7 +6596,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6467,7 +6613,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6484,7 +6630,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6501,7 +6647,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6518,7 +6664,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6535,7 +6681,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6552,7 +6698,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6569,7 +6715,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6586,7 +6732,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6603,7 +6749,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6620,7 +6766,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6637,7 +6783,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6654,7 +6800,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6671,7 +6817,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6688,7 +6834,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6705,7 +6851,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6722,7 +6868,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6739,7 +6885,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6756,7 +6902,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -6773,7 +6919,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A204" s="10" t="s">
         <v>7</v>
       </c>
@@ -6798,7 +6944,7 @@
       <c r="N204" s="17"/>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="15"/>
@@ -6817,7 +6963,7 @@
       <c r="N205" s="17"/>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6834,7 +6980,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6851,7 +6997,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6868,7 +7014,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6885,7 +7031,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6902,7 +7048,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6919,7 +7065,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6936,7 +7082,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6953,7 +7099,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6970,7 +7116,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6987,7 +7133,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7004,7 +7150,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7021,7 +7167,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7038,7 +7184,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7055,7 +7201,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7072,7 +7218,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7089,7 +7235,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7106,7 +7252,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7123,7 +7269,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7140,7 +7286,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7157,7 +7303,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7174,7 +7320,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7191,7 +7337,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7208,7 +7354,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7225,7 +7371,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7242,7 +7388,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7259,7 +7405,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7276,7 +7422,7 @@
       <c r="N232" s="5"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A233" s="10" t="s">
         <v>7</v>
       </c>
@@ -7301,7 +7447,7 @@
       <c r="N233" s="17"/>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="15"/>
@@ -7320,7 +7466,7 @@
       <c r="N234" s="17"/>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7337,7 +7483,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7354,7 +7500,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7371,7 +7517,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7388,7 +7534,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7405,7 +7551,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7422,7 +7568,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7439,7 +7585,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7456,7 +7602,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7473,7 +7619,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7490,7 +7636,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7507,7 +7653,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7524,7 +7670,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7541,7 +7687,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7558,7 +7704,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7575,7 +7721,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7592,7 +7738,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7609,7 +7755,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7626,7 +7772,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7643,7 +7789,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7660,7 +7806,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7677,7 +7823,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7694,7 +7840,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7711,7 +7857,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7728,7 +7874,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7745,7 +7891,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7762,7 +7908,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7779,7 +7925,7 @@
       <c r="N261" s="5"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A262" s="10" t="s">
         <v>7</v>
       </c>
@@ -7804,7 +7950,7 @@
       <c r="N262" s="17"/>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="15"/>
@@ -7823,7 +7969,7 @@
       <c r="N263" s="17"/>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7840,7 +7986,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7857,7 +8003,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7874,7 +8020,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7891,7 +8037,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7908,7 +8054,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7925,7 +8071,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7942,7 +8088,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -7959,7 +8105,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7976,7 +8122,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7993,7 +8139,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8010,7 +8156,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8027,7 +8173,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8044,7 +8190,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8061,7 +8207,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8078,7 +8224,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8095,7 +8241,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8112,7 +8258,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8129,7 +8275,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8146,7 +8292,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8163,7 +8309,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8180,7 +8326,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8197,7 +8343,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8214,7 +8360,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8231,7 +8377,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8248,7 +8394,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8265,7 +8411,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8284,56 +8430,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A262:C263"/>
+    <mergeCell ref="D262:F263"/>
+    <mergeCell ref="G262:L263"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="A262:C263"/>
-    <mergeCell ref="D262:F263"/>
-    <mergeCell ref="G262:L263"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8359,15 +8505,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O205"/>
+  <dimension ref="A1:O235"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q9" sqref="P9:Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="T226" sqref="T226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -8392,7 +8538,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -8411,7 +8557,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8428,7 +8574,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8445,7 +8591,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8462,7 +8608,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8479,7 +8625,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8496,7 +8642,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -8513,7 +8659,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8530,7 +8676,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -8547,7 +8693,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8564,7 +8710,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8581,7 +8727,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8598,7 +8744,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8615,7 +8761,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8632,7 +8778,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8649,7 +8795,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8666,7 +8812,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8683,7 +8829,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8700,7 +8846,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8717,7 +8863,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8734,7 +8880,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8751,7 +8897,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8768,7 +8914,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8785,7 +8931,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8802,7 +8948,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8819,7 +8965,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8836,7 +8982,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8853,7 +8999,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8870,7 +9016,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8887,7 +9033,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>13</v>
       </c>
@@ -8912,7 +9058,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
@@ -8931,7 +9077,7 @@
       <c r="N32" s="17"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8948,7 +9094,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8965,7 +9111,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8982,7 +9128,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8999,7 +9145,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9016,7 +9162,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9033,7 +9179,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9050,7 +9196,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9067,7 +9213,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9084,7 +9230,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9101,7 +9247,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9118,7 +9264,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9135,7 +9281,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9152,7 +9298,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9169,7 +9315,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9186,7 +9332,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9203,7 +9349,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9220,7 +9366,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9237,7 +9383,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9254,7 +9400,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -9271,7 +9417,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -9288,7 +9434,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -9305,7 +9451,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9322,7 +9468,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -9339,7 +9485,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -9356,7 +9502,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -9373,7 +9519,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -9390,7 +9536,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="s">
         <v>13</v>
       </c>
@@ -9415,7 +9561,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
@@ -9434,7 +9580,7 @@
       <c r="N61" s="17"/>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -9451,7 +9597,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -9468,7 +9614,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -9485,7 +9631,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -9502,7 +9648,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9519,7 +9665,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9536,7 +9682,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9553,7 +9699,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9570,7 +9716,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9587,7 +9733,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9604,7 +9750,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9621,7 +9767,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -9638,7 +9784,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -9655,7 +9801,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -9672,7 +9818,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -9689,7 +9835,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -9706,7 +9852,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -9723,7 +9869,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -9740,7 +9886,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -9757,7 +9903,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -9774,7 +9920,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -9791,7 +9937,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -9808,7 +9954,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -9825,7 +9971,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -9842,7 +9988,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -9859,7 +10005,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -9876,7 +10022,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -9893,7 +10039,7 @@
       <c r="N88" s="5"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="s">
         <v>13</v>
       </c>
@@ -9918,7 +10064,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
@@ -9937,7 +10083,7 @@
       <c r="N90" s="17"/>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -9954,7 +10100,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -9971,7 +10117,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -9988,7 +10134,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -10005,7 +10151,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -10022,7 +10168,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -10039,7 +10185,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10056,7 +10202,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -10073,7 +10219,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10090,7 +10236,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10107,7 +10253,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10124,7 +10270,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10141,7 +10287,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10158,7 +10304,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10175,7 +10321,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10192,7 +10338,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10209,7 +10355,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10226,7 +10372,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10243,7 +10389,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10260,7 +10406,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10277,7 +10423,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -10294,7 +10440,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -10311,7 +10457,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -10328,7 +10474,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -10345,7 +10491,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -10362,7 +10508,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -10379,7 +10525,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -10396,7 +10542,7 @@
       <c r="N117" s="5"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="10" t="s">
         <v>13</v>
       </c>
@@ -10421,7 +10567,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
@@ -10440,7 +10586,7 @@
       <c r="N119" s="17"/>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -10457,7 +10603,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -10474,7 +10620,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -10491,7 +10637,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -10508,7 +10654,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -10525,7 +10671,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -10542,7 +10688,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -10559,7 +10705,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -10576,7 +10722,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -10593,7 +10739,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -10610,7 +10756,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -10627,7 +10773,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -10644,7 +10790,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -10661,7 +10807,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -10678,7 +10824,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -10695,7 +10841,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -10712,7 +10858,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10729,7 +10875,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -10746,7 +10892,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -10763,7 +10909,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -10780,7 +10926,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -10797,7 +10943,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -10814,7 +10960,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -10831,7 +10977,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -10848,7 +10994,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -10865,7 +11011,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -10882,7 +11028,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -10899,7 +11045,7 @@
       <c r="N146" s="5"/>
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
         <v>13</v>
       </c>
@@ -10924,7 +11070,7 @@
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="15"/>
@@ -10943,7 +11089,7 @@
       <c r="N148" s="17"/>
       <c r="O148" s="18"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -10960,7 +11106,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -10977,7 +11123,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -10994,7 +11140,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -11011,7 +11157,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -11028,7 +11174,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -11045,7 +11191,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -11062,7 +11208,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -11079,7 +11225,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -11096,7 +11242,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -11113,7 +11259,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -11130,7 +11276,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -11147,7 +11293,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -11164,7 +11310,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -11181,7 +11327,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -11198,7 +11344,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -11215,7 +11361,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -11232,7 +11378,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -11249,7 +11395,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -11266,7 +11412,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -11283,7 +11429,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -11300,7 +11446,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -11317,7 +11463,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -11334,7 +11480,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -11351,7 +11497,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -11368,7 +11514,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -11385,7 +11531,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -11402,7 +11548,7 @@
       <c r="N175" s="5"/>
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="10" t="s">
         <v>13</v>
       </c>
@@ -11427,7 +11573,7 @@
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
@@ -11446,7 +11592,7 @@
       <c r="N177" s="17"/>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -11463,7 +11609,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -11480,7 +11626,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -11497,7 +11643,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -11514,7 +11660,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -11531,7 +11677,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -11548,7 +11694,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -11565,7 +11711,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -11582,7 +11728,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -11599,7 +11745,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -11616,7 +11762,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -11633,7 +11779,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -11650,7 +11796,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -11667,7 +11813,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -11684,7 +11830,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -11701,7 +11847,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -11718,7 +11864,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -11735,7 +11881,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -11752,7 +11898,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -11769,7 +11915,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -11786,7 +11932,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -11803,7 +11949,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -11820,7 +11966,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -11837,7 +11983,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -11854,7 +12000,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11871,7 +12017,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11888,7 +12034,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11905,7 +12051,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -11922,43 +12068,568 @@
       <c r="N205" s="5"/>
       <c r="O205" s="6"/>
     </row>
+    <row r="206" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A206" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" s="11"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E206" s="26"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N206" s="17"/>
+      <c r="O206" s="18"/>
+    </row>
+    <row r="207" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A207" s="13"/>
+      <c r="B207" s="14"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="28"/>
+      <c r="E207" s="29"/>
+      <c r="F207" s="30"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="14"/>
+      <c r="J207" s="14"/>
+      <c r="K207" s="14"/>
+      <c r="L207" s="15"/>
+      <c r="M207" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N207" s="17"/>
+      <c r="O207" s="18"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A208" s="1"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="3"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A209" s="1"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="3"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A210" s="1"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="3"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A211" s="1"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="3"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="3"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="3"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="3"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="3"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="3"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="3"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="3"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="3"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A220" s="1"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="3"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="3"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="2"/>
+      <c r="N222" s="2"/>
+      <c r="O222" s="3"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A223" s="1"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="2"/>
+      <c r="N223" s="2"/>
+      <c r="O223" s="3"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A224" s="1"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="2"/>
+      <c r="N224" s="2"/>
+      <c r="O224" s="3"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A225" s="1"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2"/>
+      <c r="N225" s="2"/>
+      <c r="O225" s="3"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A226" s="1"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2"/>
+      <c r="N226" s="2"/>
+      <c r="O226" s="3"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A227" s="1"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2"/>
+      <c r="N227" s="2"/>
+      <c r="O227" s="3"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A228" s="1"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="3"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A229" s="1"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
+      <c r="O229" s="3"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="3"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="3"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="3"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="3"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="3"/>
+    </row>
+    <row r="235" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A235" s="4"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="5"/>
+      <c r="M235" s="5"/>
+      <c r="N235" s="5"/>
+      <c r="O235" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="40">
+    <mergeCell ref="A206:C207"/>
+    <mergeCell ref="D206:F207"/>
+    <mergeCell ref="G206:L207"/>
+    <mergeCell ref="M206:O206"/>
+    <mergeCell ref="M207:O207"/>
+    <mergeCell ref="A147:C148"/>
+    <mergeCell ref="D147:F148"/>
+    <mergeCell ref="G147:L148"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="M148:O148"/>
+    <mergeCell ref="A176:C177"/>
+    <mergeCell ref="D176:F177"/>
+    <mergeCell ref="G176:L177"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="M177:O177"/>
+    <mergeCell ref="A89:C90"/>
+    <mergeCell ref="D89:F90"/>
+    <mergeCell ref="G89:L90"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="A118:C119"/>
+    <mergeCell ref="D118:F119"/>
+    <mergeCell ref="G118:L119"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="D60:F61"/>
+    <mergeCell ref="G60:L61"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="D60:F61"/>
-    <mergeCell ref="G60:L61"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A118:C119"/>
-    <mergeCell ref="D118:F119"/>
-    <mergeCell ref="G118:L119"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="A89:C90"/>
-    <mergeCell ref="D89:F90"/>
-    <mergeCell ref="G89:L90"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="A176:C177"/>
-    <mergeCell ref="D176:F177"/>
-    <mergeCell ref="G176:L177"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="M177:O177"/>
-    <mergeCell ref="A147:C148"/>
-    <mergeCell ref="D147:F148"/>
-    <mergeCell ref="G147:L148"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="M148:O148"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11986,9 +12657,9 @@
       <selection activeCell="D30" sqref="D30:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
@@ -12013,7 +12684,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -12032,7 +12703,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -12049,7 +12720,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -12066,7 +12737,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -12083,7 +12754,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12100,7 +12771,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -12117,7 +12788,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12134,7 +12805,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -12151,7 +12822,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -12168,7 +12839,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12185,7 +12856,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -12202,7 +12873,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -12219,7 +12890,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -12236,7 +12907,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -12253,7 +12924,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -12270,7 +12941,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -12287,7 +12958,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -12304,7 +12975,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -12321,7 +12992,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -12338,7 +13009,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -12355,7 +13026,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -12372,7 +13043,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -12389,7 +13060,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -12406,7 +13077,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -12423,7 +13094,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -12440,7 +13111,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -12457,7 +13128,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -12474,7 +13145,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -12491,7 +13162,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
         <v>19</v>
       </c>
@@ -12516,7 +13187,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -12535,7 +13206,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -12552,7 +13223,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -12569,7 +13240,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -12586,7 +13257,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -12603,7 +13274,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -12620,7 +13291,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -12637,7 +13308,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -12654,7 +13325,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -12671,7 +13342,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -12688,7 +13359,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -12705,7 +13376,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -12722,7 +13393,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -12739,7 +13410,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -12756,7 +13427,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -12773,7 +13444,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -12790,7 +13461,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -12807,7 +13478,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -12824,7 +13495,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -12841,7 +13512,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -12858,7 +13529,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -12875,7 +13546,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -12892,7 +13563,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -12909,7 +13580,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -12926,7 +13597,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -12943,7 +13614,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -12960,7 +13631,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -12977,7 +13648,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12994,7 +13665,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>19</v>
       </c>
@@ -13019,7 +13690,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -13038,7 +13709,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -13055,7 +13726,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -13072,7 +13743,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -13089,7 +13760,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -13106,7 +13777,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -13123,7 +13794,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -13140,7 +13811,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -13157,7 +13828,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -13174,7 +13845,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -13191,7 +13862,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -13208,7 +13879,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -13225,7 +13896,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -13242,7 +13913,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -13259,7 +13930,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -13276,7 +13947,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -13293,7 +13964,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -13310,7 +13981,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -13327,7 +13998,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -13344,7 +14015,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -13361,7 +14032,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -13378,7 +14049,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -13395,7 +14066,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -13412,7 +14083,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -13429,7 +14100,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -13446,7 +14117,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -13463,7 +14134,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -13480,7 +14151,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -13497,7 +14168,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="10" t="s">
         <v>19</v>
       </c>
@@ -13522,7 +14193,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -13541,7 +14212,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -13558,7 +14229,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -13575,7 +14246,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -13592,7 +14263,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -13609,7 +14280,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -13626,7 +14297,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -13643,7 +14314,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -13660,7 +14331,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -13677,7 +14348,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -13694,7 +14365,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -13711,7 +14382,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -13728,7 +14399,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -13745,7 +14416,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -13762,7 +14433,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -13779,7 +14450,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -13796,7 +14467,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -13813,7 +14484,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -13830,7 +14501,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -13847,7 +14518,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -13864,7 +14535,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -13881,7 +14552,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -13898,7 +14569,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -13915,7 +14586,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -13932,7 +14603,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -13949,7 +14620,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -13966,7 +14637,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13985,26 +14656,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14030,9 +14701,9 @@
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
@@ -14057,7 +14728,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -14076,7 +14747,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14093,7 +14764,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14110,7 +14781,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14127,7 +14798,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -14144,7 +14815,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -14161,7 +14832,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -14178,7 +14849,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14195,7 +14866,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -14212,7 +14883,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -14229,7 +14900,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -14246,7 +14917,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -14263,7 +14934,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -14280,7 +14951,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -14297,7 +14968,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -14314,7 +14985,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -14331,7 +15002,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -14348,7 +15019,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -14365,7 +15036,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -14382,7 +15053,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -14399,7 +15070,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -14416,7 +15087,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -14433,7 +15104,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -14450,7 +15121,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -14467,7 +15138,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -14484,7 +15155,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -14501,7 +15172,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -14518,7 +15189,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -14558,13 +15229,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
@@ -14587,7 +15258,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -14606,7 +15277,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14623,7 +15294,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14640,7 +15311,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14657,7 +15328,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -14674,7 +15345,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -14691,7 +15362,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -14708,7 +15379,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14727,7 +15398,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -14744,7 +15415,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -14761,7 +15432,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -14778,7 +15449,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -14795,7 +15466,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -14812,7 +15483,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -14829,7 +15500,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -14846,7 +15517,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -14863,7 +15534,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -14880,7 +15551,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -14897,7 +15568,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -14914,7 +15585,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -14931,7 +15602,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -14948,7 +15619,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -14965,7 +15636,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -14982,7 +15653,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -14999,7 +15670,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -15016,7 +15687,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -15033,7 +15704,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -15050,7 +15721,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>

--- a/設計書/Book1.xlsx
+++ b/設計書/Book1.xlsx
@@ -686,6 +686,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,24 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2241,19 +2241,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>485969</xdr:colOff>
+      <xdr:colOff>631760</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>204109</xdr:rowOff>
+      <xdr:rowOff>29159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>48597</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>229861</xdr:rowOff>
+      <xdr:colOff>9718</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>39914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2266,8 +2266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="485969" y="43445665"/>
-          <a:ext cx="9223699" cy="5857385"/>
+          <a:off x="631760" y="43270715"/>
+          <a:ext cx="9039029" cy="6085372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9029,61 +9029,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A262:C263"/>
+    <mergeCell ref="D262:F263"/>
+    <mergeCell ref="G262:L263"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
     <mergeCell ref="A291:C292"/>
     <mergeCell ref="D291:F292"/>
     <mergeCell ref="G291:L292"/>
     <mergeCell ref="M291:O291"/>
     <mergeCell ref="M292:O292"/>
-    <mergeCell ref="A262:C263"/>
-    <mergeCell ref="D262:F263"/>
-    <mergeCell ref="G262:L263"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9110,8 +9110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="98" zoomScaleNormal="25" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="R195" sqref="R195"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="U190" sqref="U190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9122,11 +9122,11 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
@@ -9145,9 +9145,9 @@
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -9642,11 +9642,11 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="10" t="s">
         <v>1</v>
       </c>
@@ -9665,9 +9665,9 @@
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -10145,11 +10145,11 @@
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="10" t="s">
         <v>1</v>
       </c>
@@ -10168,9 +10168,9 @@
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
       <c r="G61" s="13"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -10648,11 +10648,11 @@
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="27"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="10" t="s">
         <v>1</v>
       </c>
@@ -10671,9 +10671,9 @@
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="30"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="24"/>
       <c r="G90" s="13"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
@@ -11151,11 +11151,11 @@
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="26"/>
-      <c r="F118" s="27"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="21"/>
       <c r="G118" s="10" t="s">
         <v>1</v>
       </c>
@@ -11174,9 +11174,9 @@
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="30"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="24"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
@@ -11654,11 +11654,11 @@
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
-      <c r="D147" s="25" t="s">
+      <c r="D147" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E147" s="26"/>
-      <c r="F147" s="27"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="21"/>
       <c r="G147" s="10" t="s">
         <v>1</v>
       </c>
@@ -11677,9 +11677,9 @@
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="15"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="30"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="24"/>
       <c r="G148" s="13"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
@@ -12157,11 +12157,11 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="12"/>
-      <c r="D176" s="19" t="s">
+      <c r="D176" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E176" s="20"/>
-      <c r="F176" s="21"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="27"/>
       <c r="G176" s="10" t="s">
         <v>1</v>
       </c>
@@ -12180,9 +12180,9 @@
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="24"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="30"/>
       <c r="G177" s="13"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
@@ -12673,41 +12673,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A176:C177"/>
+    <mergeCell ref="D176:F177"/>
+    <mergeCell ref="G176:L177"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="M177:O177"/>
+    <mergeCell ref="A147:C148"/>
+    <mergeCell ref="D147:F148"/>
+    <mergeCell ref="G147:L148"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="M148:O148"/>
+    <mergeCell ref="A89:C90"/>
+    <mergeCell ref="D89:F90"/>
+    <mergeCell ref="G89:L90"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="A118:C119"/>
+    <mergeCell ref="D118:F119"/>
+    <mergeCell ref="G118:L119"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="D60:F61"/>
+    <mergeCell ref="G60:L61"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="D60:F61"/>
-    <mergeCell ref="G60:L61"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A118:C119"/>
-    <mergeCell ref="D118:F119"/>
-    <mergeCell ref="G118:L119"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="A89:C90"/>
-    <mergeCell ref="D89:F90"/>
-    <mergeCell ref="G89:L90"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="A147:C148"/>
-    <mergeCell ref="D147:F148"/>
-    <mergeCell ref="G147:L148"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="M148:O148"/>
-    <mergeCell ref="A176:C177"/>
-    <mergeCell ref="D176:F177"/>
-    <mergeCell ref="G176:L177"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="M177:O177"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12716,11 +12716,12 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="4" manualBreakCount="4">
+  <rowBreaks count="5" manualBreakCount="5">
     <brk id="59" max="16383" man="1"/>
     <brk id="88" max="16383" man="1"/>
     <brk id="117" max="16383" man="1"/>
     <brk id="146" max="16383" man="1"/>
+    <brk id="175" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14733,26 +14734,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/設計書/Book1.xlsx
+++ b/設計書/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="9165" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20532" windowHeight="9168" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">ER図!$A$1:$O$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">画面UI!$A$1:$O$261</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">画面UI!$A$1:$O$319</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$O$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -275,15 +275,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>4p~11p</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1-3.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12p～17p</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -291,15 +283,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>18p～20p</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1-5.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>21p</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -443,6 +427,22 @@
     <rPh sb="16" eb="18">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4p~14p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15p～21p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>22p～25p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>26p</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -686,6 +686,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,24 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2812,13 +2812,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:M40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.45">
       <c r="E29" s="7" t="s">
         <v>24</v>
       </c>
@@ -2861,14 +2861,14 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.45">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
         <v>28</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>30</v>
       </c>
@@ -2895,12 +2895,12 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D36" t="s">
-        <v>32</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>25</v>
@@ -2910,12 +2910,12 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>18</v>
@@ -2925,12 +2925,12 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>23</v>
@@ -2940,7 +2940,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2971,18 +2971,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="6" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" customWidth="1"/>
+    <col min="4" max="6" width="9.8984375" customWidth="1"/>
+    <col min="14" max="14" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3002,12 +3002,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -3021,12 +3021,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3043,7 +3043,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3060,7 +3060,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3077,7 +3077,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3094,7 +3094,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3111,7 +3111,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3128,7 +3128,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3145,7 +3145,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3162,7 +3162,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3179,7 +3179,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3196,7 +3196,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3213,7 +3213,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3230,7 +3230,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3247,7 +3247,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3264,7 +3264,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3281,7 +3281,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3298,7 +3298,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3315,7 +3315,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3332,7 +3332,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3349,7 +3349,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3366,7 +3366,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3383,7 +3383,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3400,7 +3400,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3417,7 +3417,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3434,7 +3434,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3451,7 +3451,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3491,13 +3491,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView topLeftCell="A279" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="U281" sqref="U281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -3517,12 +3517,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -3536,12 +3536,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3558,7 +3558,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3575,7 +3575,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3592,7 +3592,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3609,7 +3609,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3626,7 +3626,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3643,7 +3643,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3660,7 +3660,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3677,7 +3677,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3694,7 +3694,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3711,7 +3711,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3728,7 +3728,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3745,7 +3745,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3762,7 +3762,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3779,7 +3779,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3796,7 +3796,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3813,7 +3813,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3830,7 +3830,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3847,7 +3847,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3864,7 +3864,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3881,7 +3881,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3898,7 +3898,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3915,7 +3915,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3932,7 +3932,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3949,7 +3949,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3966,7 +3966,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3983,7 +3983,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4000,7 +4000,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -4020,12 +4020,12 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -4039,12 +4039,12 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4061,7 +4061,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4078,7 +4078,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4095,7 +4095,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4112,7 +4112,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4129,7 +4129,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4146,7 +4146,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4163,7 +4163,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4180,7 +4180,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4197,7 +4197,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4214,7 +4214,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4231,7 +4231,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4248,7 +4248,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4265,7 +4265,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4282,7 +4282,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4299,7 +4299,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4316,7 +4316,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4333,7 +4333,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4350,7 +4350,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4367,7 +4367,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4384,7 +4384,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4401,7 +4401,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4418,7 +4418,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4435,7 +4435,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4452,7 +4452,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4469,7 +4469,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4486,7 +4486,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4503,7 +4503,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
@@ -4523,12 +4523,12 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -4542,12 +4542,12 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4564,7 +4564,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4581,7 +4581,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4598,7 +4598,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4615,7 +4615,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4632,7 +4632,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4649,7 +4649,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4666,7 +4666,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4683,7 +4683,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4700,7 +4700,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4717,7 +4717,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4734,7 +4734,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4751,7 +4751,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4768,7 +4768,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4785,7 +4785,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4802,7 +4802,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4819,7 +4819,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4836,7 +4836,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4853,7 +4853,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4870,7 +4870,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4887,7 +4887,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4904,7 +4904,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4921,7 +4921,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4938,7 +4938,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4955,7 +4955,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4972,7 +4972,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4989,7 +4989,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5006,7 +5006,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="10" t="s">
         <v>7</v>
       </c>
@@ -5026,12 +5026,12 @@
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
       <c r="M88" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -5045,12 +5045,12 @@
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5067,7 +5067,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5084,7 +5084,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5101,7 +5101,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5118,7 +5118,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5135,7 +5135,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5152,7 +5152,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5169,7 +5169,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5186,7 +5186,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5203,7 +5203,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5220,7 +5220,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5237,7 +5237,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5254,7 +5254,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5271,7 +5271,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5288,7 +5288,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5305,7 +5305,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5322,7 +5322,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5339,7 +5339,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5356,7 +5356,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5373,7 +5373,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5390,7 +5390,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5407,7 +5407,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5424,7 +5424,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5441,7 +5441,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5458,7 +5458,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5475,7 +5475,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5492,7 +5492,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5509,7 +5509,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="10" t="s">
         <v>7</v>
       </c>
@@ -5529,12 +5529,12 @@
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
       <c r="M117" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N117" s="17"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -5548,12 +5548,12 @@
       <c r="K118" s="14"/>
       <c r="L118" s="14"/>
       <c r="M118" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5570,7 +5570,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5587,7 +5587,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5604,7 +5604,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5621,7 +5621,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5638,7 +5638,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5655,7 +5655,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5672,7 +5672,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5689,7 +5689,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5706,7 +5706,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5723,7 +5723,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5740,7 +5740,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5757,7 +5757,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5774,7 +5774,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5791,7 +5791,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5808,7 +5808,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5825,7 +5825,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5842,7 +5842,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5859,7 +5859,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5876,7 +5876,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5893,7 +5893,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5910,7 +5910,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5927,7 +5927,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5944,7 +5944,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5961,7 +5961,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5978,7 +5978,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5995,7 +5995,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6012,7 +6012,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A146" s="10" t="s">
         <v>7</v>
       </c>
@@ -6032,12 +6032,12 @@
       <c r="K146" s="11"/>
       <c r="L146" s="11"/>
       <c r="M146" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N146" s="17"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
@@ -6051,12 +6051,12 @@
       <c r="K147" s="14"/>
       <c r="L147" s="14"/>
       <c r="M147" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6073,7 +6073,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6090,7 +6090,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6107,7 +6107,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6124,7 +6124,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6141,7 +6141,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6158,7 +6158,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6175,7 +6175,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6192,7 +6192,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6209,7 +6209,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6226,7 +6226,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6243,7 +6243,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6260,7 +6260,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6277,7 +6277,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6294,7 +6294,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6311,7 +6311,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6328,7 +6328,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6345,7 +6345,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6362,7 +6362,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6379,7 +6379,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6396,7 +6396,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6413,7 +6413,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6430,7 +6430,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6447,7 +6447,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6464,7 +6464,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6481,7 +6481,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6498,7 +6498,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6515,7 +6515,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A175" s="10" t="s">
         <v>7</v>
       </c>
@@ -6535,12 +6535,12 @@
       <c r="K175" s="11"/>
       <c r="L175" s="11"/>
       <c r="M175" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N175" s="17"/>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
@@ -6554,12 +6554,12 @@
       <c r="K176" s="14"/>
       <c r="L176" s="14"/>
       <c r="M176" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6576,7 +6576,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6593,7 +6593,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6610,7 +6610,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6627,7 +6627,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6644,7 +6644,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6661,7 +6661,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6678,7 +6678,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6695,7 +6695,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6712,7 +6712,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6729,7 +6729,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6746,7 +6746,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6763,7 +6763,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6780,7 +6780,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6797,7 +6797,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6814,7 +6814,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6831,7 +6831,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6848,7 +6848,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6865,7 +6865,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6882,7 +6882,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6899,7 +6899,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6916,7 +6916,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6933,7 +6933,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6950,7 +6950,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6967,7 +6967,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6984,7 +6984,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7001,7 +7001,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -7018,7 +7018,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A204" s="10" t="s">
         <v>7</v>
       </c>
@@ -7038,12 +7038,12 @@
       <c r="K204" s="11"/>
       <c r="L204" s="11"/>
       <c r="M204" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N204" s="17"/>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="15"/>
@@ -7057,12 +7057,12 @@
       <c r="K205" s="14"/>
       <c r="L205" s="14"/>
       <c r="M205" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N205" s="17"/>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7079,7 +7079,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7096,7 +7096,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7113,7 +7113,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7130,7 +7130,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7147,7 +7147,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7164,7 +7164,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7181,7 +7181,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7198,7 +7198,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7215,7 +7215,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7232,7 +7232,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7249,7 +7249,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7266,7 +7266,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7283,7 +7283,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7300,7 +7300,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7317,7 +7317,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7334,7 +7334,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7351,7 +7351,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7368,7 +7368,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7385,7 +7385,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7402,7 +7402,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7419,7 +7419,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7436,7 +7436,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7453,7 +7453,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7470,7 +7470,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7487,7 +7487,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7504,7 +7504,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7521,14 +7521,14 @@
       <c r="N232" s="5"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A233" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B233" s="11"/>
       <c r="C233" s="12"/>
       <c r="D233" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E233" s="11"/>
       <c r="F233" s="12"/>
@@ -7541,12 +7541,12 @@
       <c r="K233" s="11"/>
       <c r="L233" s="11"/>
       <c r="M233" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N233" s="17"/>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="15"/>
@@ -7560,12 +7560,12 @@
       <c r="K234" s="14"/>
       <c r="L234" s="14"/>
       <c r="M234" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N234" s="17"/>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7582,7 +7582,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7599,7 +7599,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7616,7 +7616,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7633,7 +7633,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7650,7 +7650,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7667,7 +7667,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7684,7 +7684,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7701,7 +7701,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7718,7 +7718,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7735,7 +7735,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7752,7 +7752,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7769,7 +7769,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7786,7 +7786,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7803,7 +7803,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7820,7 +7820,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7837,7 +7837,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7854,7 +7854,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7871,7 +7871,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7888,7 +7888,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7904,7 +7904,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7921,7 +7921,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7938,7 +7938,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7955,7 +7955,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7972,7 +7972,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7989,7 +7989,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8006,7 +8006,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -8023,7 +8023,7 @@
       <c r="N261" s="5"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A262" s="10" t="s">
         <v>7</v>
       </c>
@@ -8043,12 +8043,12 @@
       <c r="K262" s="11"/>
       <c r="L262" s="11"/>
       <c r="M262" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N262" s="17"/>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="15"/>
@@ -8062,12 +8062,12 @@
       <c r="K263" s="14"/>
       <c r="L263" s="14"/>
       <c r="M263" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N263" s="17"/>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8084,7 +8084,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8101,7 +8101,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8118,7 +8118,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8135,7 +8135,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8152,7 +8152,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8169,7 +8169,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8186,7 +8186,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8203,7 +8203,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8220,7 +8220,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8237,7 +8237,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8254,7 +8254,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8271,7 +8271,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8288,7 +8288,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8305,7 +8305,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8322,7 +8322,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8339,7 +8339,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8356,7 +8356,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8372,7 +8372,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8389,7 +8389,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8406,7 +8406,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8423,7 +8423,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8440,7 +8440,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8457,7 +8457,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8474,7 +8474,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8491,7 +8491,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8508,7 +8508,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8525,14 +8525,14 @@
       <c r="N290" s="5"/>
       <c r="O290" s="6"/>
     </row>
-    <row r="291" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A291" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B291" s="11"/>
       <c r="C291" s="12"/>
       <c r="D291" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E291" s="11"/>
       <c r="F291" s="12"/>
@@ -8545,12 +8545,12 @@
       <c r="K291" s="11"/>
       <c r="L291" s="11"/>
       <c r="M291" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N291" s="17"/>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A292" s="13"/>
       <c r="B292" s="14"/>
       <c r="C292" s="15"/>
@@ -8564,12 +8564,12 @@
       <c r="K292" s="14"/>
       <c r="L292" s="14"/>
       <c r="M292" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N292" s="17"/>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8586,7 +8586,7 @@
       <c r="N293" s="2"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8603,7 +8603,7 @@
       <c r="N294" s="2"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8620,7 +8620,7 @@
       <c r="N295" s="2"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8637,7 +8637,7 @@
       <c r="N296" s="2"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8654,7 +8654,7 @@
       <c r="N297" s="2"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8670,7 +8670,7 @@
       <c r="N298" s="2"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8687,7 +8687,7 @@
       <c r="N299" s="2"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8704,7 +8704,7 @@
       <c r="N300" s="2"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8721,7 +8721,7 @@
       <c r="N301" s="2"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -8738,7 +8738,7 @@
       <c r="N302" s="2"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -8755,7 +8755,7 @@
       <c r="N303" s="2"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -8772,7 +8772,7 @@
       <c r="N304" s="2"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -8789,7 +8789,7 @@
       <c r="N305" s="2"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -8806,7 +8806,7 @@
       <c r="N306" s="2"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -8823,7 +8823,7 @@
       <c r="N307" s="2"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -8840,7 +8840,7 @@
       <c r="N308" s="2"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -8857,7 +8857,7 @@
       <c r="N309" s="2"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -8874,7 +8874,7 @@
       <c r="N310" s="2"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -8891,7 +8891,7 @@
       <c r="N311" s="2"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -8908,7 +8908,7 @@
       <c r="N312" s="2"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -8925,7 +8925,7 @@
       <c r="N313" s="2"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -8942,7 +8942,7 @@
       <c r="N314" s="2"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -8959,7 +8959,7 @@
       <c r="N315" s="2"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -8976,7 +8976,7 @@
       <c r="N316" s="2"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -8993,7 +8993,7 @@
       <c r="N317" s="2"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9010,7 +9010,7 @@
       <c r="N318" s="2"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -9029,61 +9029,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A291:C292"/>
+    <mergeCell ref="D291:F292"/>
+    <mergeCell ref="G291:L292"/>
+    <mergeCell ref="M291:O291"/>
+    <mergeCell ref="M292:O292"/>
+    <mergeCell ref="A262:C263"/>
+    <mergeCell ref="D262:F263"/>
+    <mergeCell ref="G262:L263"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
     <mergeCell ref="A233:C234"/>
     <mergeCell ref="D233:F234"/>
     <mergeCell ref="G233:L234"/>
     <mergeCell ref="M233:O233"/>
     <mergeCell ref="M234:O234"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A262:C263"/>
-    <mergeCell ref="D262:F263"/>
-    <mergeCell ref="G262:L263"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
-    <mergeCell ref="A291:C292"/>
-    <mergeCell ref="D291:F292"/>
-    <mergeCell ref="G291:L292"/>
-    <mergeCell ref="M291:O291"/>
-    <mergeCell ref="M292:O292"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9092,7 +9092,7 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="8" manualBreakCount="8">
+  <rowBreaks count="10" manualBreakCount="10">
     <brk id="29" max="14" man="1"/>
     <brk id="58" max="14" man="1"/>
     <brk id="87" max="14" man="1"/>
@@ -9101,6 +9101,8 @@
     <brk id="174" max="14" man="1"/>
     <brk id="203" max="14" man="1"/>
     <brk id="232" max="14" man="1"/>
+    <brk id="261" max="14" man="1"/>
+    <brk id="290" max="14" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9110,23 +9112,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="U190" sqref="U190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="19" t="s">
-        <v>47</v>
+      <c r="D1" s="25" t="s">
+        <v>43</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
@@ -9136,18 +9138,18 @@
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
       <c r="M1" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -9155,12 +9157,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="15"/>
       <c r="M2" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -9177,7 +9179,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9194,7 +9196,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9211,7 +9213,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -9228,7 +9230,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -9245,7 +9247,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -9262,7 +9264,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -9279,7 +9281,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -9296,7 +9298,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9313,7 +9315,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -9330,7 +9332,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -9347,7 +9349,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -9364,7 +9366,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -9381,7 +9383,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -9398,7 +9400,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9415,7 +9417,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -9432,7 +9434,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -9449,7 +9451,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9466,7 +9468,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9483,7 +9485,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9500,7 +9502,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9517,7 +9519,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9534,7 +9536,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9551,7 +9553,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9568,7 +9570,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9585,7 +9587,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9602,7 +9604,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9619,7 +9621,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -9636,17 +9638,17 @@
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="10" t="s">
         <v>1</v>
       </c>
@@ -9656,18 +9658,18 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -9675,12 +9677,12 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N32" s="17"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9697,7 +9699,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9714,7 +9716,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9731,7 +9733,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9748,7 +9750,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9765,7 +9767,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9782,7 +9784,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9799,7 +9801,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9816,7 +9818,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9833,7 +9835,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9850,7 +9852,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9867,7 +9869,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9884,7 +9886,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9901,7 +9903,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9918,7 +9920,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9935,7 +9937,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9952,7 +9954,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9969,7 +9971,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9986,7 +9988,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -10003,7 +10005,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -10020,7 +10022,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -10037,7 +10039,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -10054,7 +10056,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -10071,7 +10073,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -10088,7 +10090,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -10105,7 +10107,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -10122,7 +10124,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -10139,17 +10141,17 @@
       <c r="N59" s="5"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="10" t="s">
         <v>1</v>
       </c>
@@ -10159,18 +10161,18 @@
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="24"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="13"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -10178,12 +10180,12 @@
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
       <c r="M61" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N61" s="17"/>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -10200,7 +10202,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -10217,7 +10219,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -10234,7 +10236,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -10251,7 +10253,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -10268,7 +10270,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -10285,7 +10287,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -10302,7 +10304,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -10319,7 +10321,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -10336,7 +10338,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -10353,7 +10355,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -10370,7 +10372,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -10387,7 +10389,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -10404,7 +10406,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -10421,7 +10423,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -10438,7 +10440,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -10455,7 +10457,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -10472,7 +10474,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -10489,7 +10491,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -10506,7 +10508,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -10523,7 +10525,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -10540,7 +10542,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -10557,7 +10559,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -10574,7 +10576,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -10591,7 +10593,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -10608,7 +10610,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -10625,7 +10627,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -10642,17 +10644,17 @@
       <c r="N88" s="5"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="20"/>
-      <c r="F89" s="21"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="27"/>
       <c r="G89" s="10" t="s">
         <v>1</v>
       </c>
@@ -10662,18 +10664,18 @@
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
       <c r="M89" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="24"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="30"/>
       <c r="G90" s="13"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
@@ -10681,12 +10683,12 @@
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
       <c r="M90" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N90" s="17"/>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -10703,7 +10705,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -10720,7 +10722,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -10737,7 +10739,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -10754,7 +10756,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -10771,7 +10773,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -10788,7 +10790,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10805,7 +10807,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -10822,7 +10824,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10839,7 +10841,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10856,7 +10858,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10873,7 +10875,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10890,7 +10892,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10907,7 +10909,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10924,7 +10926,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10941,7 +10943,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10958,7 +10960,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10975,7 +10977,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10992,7 +10994,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -11009,7 +11011,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -11026,7 +11028,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -11043,7 +11045,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -11060,7 +11062,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -11077,7 +11079,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -11094,7 +11096,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -11111,7 +11113,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -11128,7 +11130,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -11145,17 +11147,17 @@
       <c r="N117" s="5"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="20"/>
-      <c r="F118" s="21"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="27"/>
       <c r="G118" s="10" t="s">
         <v>1</v>
       </c>
@@ -11165,18 +11167,18 @@
       <c r="K118" s="11"/>
       <c r="L118" s="11"/>
       <c r="M118" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="24"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="30"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
@@ -11184,12 +11186,12 @@
       <c r="K119" s="14"/>
       <c r="L119" s="14"/>
       <c r="M119" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N119" s="17"/>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -11206,7 +11208,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -11223,7 +11225,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -11240,7 +11242,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -11257,7 +11259,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -11274,7 +11276,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11291,7 +11293,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -11308,7 +11310,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -11325,7 +11327,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -11342,7 +11344,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11359,7 +11361,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -11376,7 +11378,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -11393,7 +11395,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -11410,7 +11412,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -11427,7 +11429,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -11444,7 +11446,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -11461,7 +11463,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -11478,7 +11480,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -11495,7 +11497,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -11512,7 +11514,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -11529,7 +11531,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -11546,7 +11548,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -11563,7 +11565,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -11580,7 +11582,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -11597,7 +11599,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -11614,7 +11616,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -11631,7 +11633,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -11648,17 +11650,17 @@
       <c r="N146" s="5"/>
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A147" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
-      <c r="D147" s="19" t="s">
+      <c r="D147" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E147" s="20"/>
-      <c r="F147" s="21"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="27"/>
       <c r="G147" s="10" t="s">
         <v>1</v>
       </c>
@@ -11668,18 +11670,18 @@
       <c r="K147" s="11"/>
       <c r="L147" s="11"/>
       <c r="M147" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="15"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="24"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="30"/>
       <c r="G148" s="13"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
@@ -11687,12 +11689,12 @@
       <c r="K148" s="14"/>
       <c r="L148" s="14"/>
       <c r="M148" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N148" s="17"/>
       <c r="O148" s="18"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -11709,7 +11711,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -11726,7 +11728,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -11743,7 +11745,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -11760,7 +11762,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -11777,7 +11779,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -11794,7 +11796,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -11811,7 +11813,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -11828,7 +11830,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -11845,7 +11847,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -11862,7 +11864,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -11879,7 +11881,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -11896,7 +11898,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -11913,7 +11915,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -11930,7 +11932,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -11947,7 +11949,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -11964,7 +11966,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -11981,7 +11983,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -11998,7 +12000,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -12015,7 +12017,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -12032,7 +12034,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -12049,7 +12051,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -12066,7 +12068,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -12083,7 +12085,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -12100,7 +12102,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -12117,7 +12119,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -12134,7 +12136,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -12151,17 +12153,17 @@
       <c r="N175" s="5"/>
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A176" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="12"/>
-      <c r="D176" s="25" t="s">
-        <v>50</v>
+      <c r="D176" s="19" t="s">
+        <v>46</v>
       </c>
-      <c r="E176" s="26"/>
-      <c r="F176" s="27"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="21"/>
       <c r="G176" s="10" t="s">
         <v>1</v>
       </c>
@@ -12171,18 +12173,18 @@
       <c r="K176" s="11"/>
       <c r="L176" s="12"/>
       <c r="M176" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="30"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="24"/>
       <c r="G177" s="13"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
@@ -12190,12 +12192,12 @@
       <c r="K177" s="14"/>
       <c r="L177" s="15"/>
       <c r="M177" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N177" s="17"/>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -12212,7 +12214,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -12229,7 +12231,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -12246,7 +12248,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -12263,7 +12265,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -12280,7 +12282,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -12297,7 +12299,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -12314,7 +12316,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -12331,7 +12333,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -12348,7 +12350,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -12365,7 +12367,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -12382,7 +12384,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -12399,7 +12401,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -12416,7 +12418,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -12433,7 +12435,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -12450,7 +12452,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -12467,7 +12469,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -12484,7 +12486,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -12501,7 +12503,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -12518,7 +12520,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -12535,7 +12537,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -12552,7 +12554,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -12569,7 +12571,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -12586,7 +12588,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -12603,7 +12605,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -12620,7 +12622,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -12637,7 +12639,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -12654,7 +12656,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -12673,41 +12675,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="D60:F61"/>
+    <mergeCell ref="G60:L61"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A118:C119"/>
+    <mergeCell ref="D118:F119"/>
+    <mergeCell ref="G118:L119"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="A89:C90"/>
+    <mergeCell ref="D89:F90"/>
+    <mergeCell ref="G89:L90"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="A147:C148"/>
+    <mergeCell ref="D147:F148"/>
+    <mergeCell ref="G147:L148"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="M148:O148"/>
     <mergeCell ref="A176:C177"/>
     <mergeCell ref="D176:F177"/>
     <mergeCell ref="G176:L177"/>
     <mergeCell ref="M176:O176"/>
     <mergeCell ref="M177:O177"/>
-    <mergeCell ref="A147:C148"/>
-    <mergeCell ref="D147:F148"/>
-    <mergeCell ref="G147:L148"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="M148:O148"/>
-    <mergeCell ref="A89:C90"/>
-    <mergeCell ref="D89:F90"/>
-    <mergeCell ref="G89:L90"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="A118:C119"/>
-    <mergeCell ref="D118:F119"/>
-    <mergeCell ref="G118:L119"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="D60:F61"/>
-    <mergeCell ref="G60:L61"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12731,13 +12733,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
@@ -12757,12 +12759,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -12776,12 +12778,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -12798,7 +12800,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -12815,7 +12817,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -12832,7 +12834,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12849,7 +12851,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -12866,7 +12868,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12883,7 +12885,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -12900,7 +12902,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -12917,7 +12919,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12934,7 +12936,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -12951,7 +12953,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -12968,7 +12970,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -12985,7 +12987,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -13002,7 +13004,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -13019,7 +13021,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -13036,7 +13038,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -13053,7 +13055,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -13070,7 +13072,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -13087,7 +13089,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13104,7 +13106,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -13121,7 +13123,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -13138,7 +13140,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -13155,7 +13157,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13172,7 +13174,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -13189,7 +13191,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -13206,7 +13208,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -13223,7 +13225,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -13240,14 +13242,14 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
@@ -13260,12 +13262,12 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -13279,12 +13281,12 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -13301,7 +13303,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -13318,7 +13320,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -13335,7 +13337,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -13352,7 +13354,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -13369,7 +13371,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -13386,7 +13388,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -13403,7 +13405,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -13420,7 +13422,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -13437,7 +13439,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -13454,7 +13456,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -13471,7 +13473,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -13488,7 +13490,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -13505,7 +13507,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -13522,7 +13524,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -13539,7 +13541,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -13556,7 +13558,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -13573,7 +13575,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -13590,7 +13592,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -13607,7 +13609,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -13624,7 +13626,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -13641,7 +13643,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -13658,7 +13660,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -13675,7 +13677,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -13692,7 +13694,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -13709,7 +13711,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -13726,7 +13728,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -13743,7 +13745,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="10" t="s">
         <v>18</v>
       </c>
@@ -13763,12 +13765,12 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -13782,12 +13784,12 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -13804,7 +13806,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -13821,7 +13823,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -13838,7 +13840,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -13855,7 +13857,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -13872,7 +13874,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -13889,7 +13891,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -13906,7 +13908,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -13923,7 +13925,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -13940,7 +13942,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -13957,7 +13959,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -13974,7 +13976,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -13991,7 +13993,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -14008,7 +14010,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -14025,7 +14027,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -14042,7 +14044,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -14059,7 +14061,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -14076,7 +14078,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -14093,7 +14095,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -14110,7 +14112,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -14127,7 +14129,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -14144,7 +14146,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -14161,7 +14163,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -14178,7 +14180,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -14195,7 +14197,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -14212,7 +14214,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -14229,7 +14231,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -14246,7 +14248,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="10" t="s">
         <v>18</v>
       </c>
@@ -14266,12 +14268,12 @@
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
       <c r="M88" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -14285,12 +14287,12 @@
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -14307,7 +14309,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -14324,7 +14326,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -14341,7 +14343,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -14358,7 +14360,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -14375,7 +14377,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -14392,7 +14394,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -14409,7 +14411,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -14426,7 +14428,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -14443,7 +14445,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -14460,7 +14462,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -14477,7 +14479,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -14494,7 +14496,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -14511,7 +14513,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -14528,7 +14530,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -14545,7 +14547,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -14562,7 +14564,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -14579,7 +14581,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -14596,7 +14598,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -14613,7 +14615,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -14630,7 +14632,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -14647,7 +14649,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -14664,7 +14666,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -14681,7 +14683,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -14698,7 +14700,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -14715,7 +14717,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -14734,26 +14736,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
     <mergeCell ref="A88:C89"/>
     <mergeCell ref="D88:F89"/>
     <mergeCell ref="G88:L89"/>
     <mergeCell ref="M88:O88"/>
     <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14775,13 +14777,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O2"/>
+    <sheetView topLeftCell="A16" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
@@ -14801,12 +14803,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -14820,12 +14822,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14842,7 +14844,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14859,7 +14861,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14876,7 +14878,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -14893,7 +14895,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -14910,7 +14912,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -14927,7 +14929,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14944,7 +14946,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -14961,7 +14963,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -14978,7 +14980,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -14995,7 +14997,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -15012,7 +15014,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -15029,7 +15031,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -15046,7 +15048,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -15063,7 +15065,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -15080,7 +15082,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -15097,7 +15099,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -15114,7 +15116,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -15131,7 +15133,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -15148,7 +15150,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -15165,7 +15167,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -15182,7 +15184,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -15199,7 +15201,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -15216,7 +15218,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -15233,7 +15235,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -15250,7 +15252,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -15267,7 +15269,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -15311,11 +15313,11 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
@@ -15336,7 +15338,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -15355,7 +15357,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -15372,7 +15374,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -15389,7 +15391,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15406,7 +15408,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -15423,7 +15425,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -15440,7 +15442,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -15457,13 +15459,13 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -15476,7 +15478,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -15493,7 +15495,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -15510,7 +15512,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -15527,7 +15529,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -15544,7 +15546,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -15561,7 +15563,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -15578,7 +15580,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -15595,7 +15597,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -15612,7 +15614,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -15629,7 +15631,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -15646,7 +15648,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -15663,7 +15665,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -15680,7 +15682,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -15697,7 +15699,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -15714,7 +15716,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -15731,7 +15733,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -15748,7 +15750,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -15765,7 +15767,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -15782,7 +15784,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -15799,7 +15801,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>

--- a/設計書/Book1.xlsx
+++ b/設計書/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20532" windowHeight="9168" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="9165" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -686,6 +686,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,24 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2284,19 +2284,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>649446</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="10" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2316,8 +2316,63 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="679450" y="1174750"/>
-          <a:ext cx="8737600" cy="4743450"/>
+          <a:off x="714375" y="1295399"/>
+          <a:ext cx="8850471" cy="4867275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="742950" y="9077324"/>
+          <a:ext cx="8848725" cy="3114675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2340,24 +2395,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>659318</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41609</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="12" name="図 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2371,8 +2426,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="692150" y="8502650"/>
-          <a:ext cx="8723818" cy="2565400"/>
+          <a:off x="704850" y="16554450"/>
+          <a:ext cx="8937959" cy="1733550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2394,74 +2449,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>12699</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>35302</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>643341</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685799" y="15843250"/>
-          <a:ext cx="8772903" cy="1663700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>3186</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="13" name="図 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2481,8 +2481,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="692149" y="22275800"/>
-          <a:ext cx="8728087" cy="1917700"/>
+          <a:off x="695325" y="23317200"/>
+          <a:ext cx="8863416" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2816,9 +2816,9 @@
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
       <c r="E29" s="7" t="s">
         <v>24</v>
       </c>
@@ -2861,14 +2861,14 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
         <v>28</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
         <v>30</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>31</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
         <v>32</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
         <v>33</v>
       </c>
@@ -2971,18 +2971,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="8.8984375" customWidth="1"/>
-    <col min="4" max="6" width="9.8984375" customWidth="1"/>
-    <col min="14" max="14" width="9.09765625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="6" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -3026,7 +3026,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3043,7 +3043,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3060,7 +3060,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3077,7 +3077,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3094,7 +3094,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3111,7 +3111,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3128,7 +3128,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3145,7 +3145,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3162,7 +3162,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3179,7 +3179,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3196,7 +3196,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3213,7 +3213,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3230,7 +3230,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3247,7 +3247,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3264,7 +3264,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3281,7 +3281,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3298,7 +3298,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3315,7 +3315,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3332,7 +3332,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3349,7 +3349,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3366,7 +3366,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3383,7 +3383,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3400,7 +3400,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3417,7 +3417,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3434,7 +3434,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3451,7 +3451,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3495,9 +3495,9 @@
       <selection activeCell="U281" sqref="U281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -3541,7 +3541,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3558,7 +3558,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3575,7 +3575,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3592,7 +3592,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3609,7 +3609,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3626,7 +3626,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3643,7 +3643,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3660,7 +3660,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3677,7 +3677,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3694,7 +3694,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3711,7 +3711,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3728,7 +3728,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3745,7 +3745,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3762,7 +3762,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3779,7 +3779,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3796,7 +3796,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3813,7 +3813,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3830,7 +3830,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3847,7 +3847,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3864,7 +3864,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3881,7 +3881,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3898,7 +3898,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3915,7 +3915,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3932,7 +3932,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3949,7 +3949,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3966,7 +3966,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3983,7 +3983,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4000,7 +4000,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -4044,7 +4044,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4061,7 +4061,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4078,7 +4078,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4095,7 +4095,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4112,7 +4112,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4129,7 +4129,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4146,7 +4146,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4163,7 +4163,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4180,7 +4180,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4197,7 +4197,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4214,7 +4214,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4231,7 +4231,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4248,7 +4248,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4265,7 +4265,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4282,7 +4282,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4299,7 +4299,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4316,7 +4316,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4333,7 +4333,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4350,7 +4350,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4367,7 +4367,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4384,7 +4384,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4401,7 +4401,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4418,7 +4418,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4435,7 +4435,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4452,7 +4452,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4469,7 +4469,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4486,7 +4486,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4503,7 +4503,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -4547,7 +4547,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4564,7 +4564,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4581,7 +4581,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4598,7 +4598,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4615,7 +4615,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4632,7 +4632,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4649,7 +4649,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4666,7 +4666,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4683,7 +4683,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4700,7 +4700,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4717,7 +4717,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4734,7 +4734,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4751,7 +4751,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4768,7 +4768,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4785,7 +4785,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4802,7 +4802,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4819,7 +4819,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4836,7 +4836,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4853,7 +4853,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4870,7 +4870,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4887,7 +4887,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4904,7 +4904,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4921,7 +4921,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4938,7 +4938,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4955,7 +4955,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4972,7 +4972,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4989,7 +4989,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5006,7 +5006,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="10" t="s">
         <v>7</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -5050,7 +5050,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5067,7 +5067,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5084,7 +5084,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5101,7 +5101,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5118,7 +5118,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5135,7 +5135,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5152,7 +5152,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5169,7 +5169,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5186,7 +5186,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5203,7 +5203,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5220,7 +5220,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5237,7 +5237,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5254,7 +5254,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5271,7 +5271,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5288,7 +5288,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5305,7 +5305,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5322,7 +5322,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5339,7 +5339,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5356,7 +5356,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5373,7 +5373,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5390,7 +5390,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5407,7 +5407,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5424,7 +5424,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5441,7 +5441,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5458,7 +5458,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5475,7 +5475,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5492,7 +5492,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5509,7 +5509,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="s">
         <v>7</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="N117" s="17"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -5553,7 +5553,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5570,7 +5570,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5587,7 +5587,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5604,7 +5604,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5621,7 +5621,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5638,7 +5638,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5655,7 +5655,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5672,7 +5672,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5689,7 +5689,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5706,7 +5706,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5723,7 +5723,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5740,7 +5740,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5757,7 +5757,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5774,7 +5774,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5791,7 +5791,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5808,7 +5808,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5825,7 +5825,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5842,7 +5842,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5859,7 +5859,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5876,7 +5876,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5893,7 +5893,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5910,7 +5910,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5927,7 +5927,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5944,7 +5944,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5961,7 +5961,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5978,7 +5978,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5995,7 +5995,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6012,7 +6012,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="10" t="s">
         <v>7</v>
       </c>
@@ -6037,7 +6037,7 @@
       <c r="N146" s="17"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
@@ -6056,7 +6056,7 @@
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6073,7 +6073,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6090,7 +6090,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6107,7 +6107,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6124,7 +6124,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6141,7 +6141,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6158,7 +6158,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6175,7 +6175,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6192,7 +6192,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6209,7 +6209,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6226,7 +6226,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6243,7 +6243,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6260,7 +6260,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6277,7 +6277,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6294,7 +6294,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6311,7 +6311,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6328,7 +6328,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6345,7 +6345,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6362,7 +6362,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6379,7 +6379,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6396,7 +6396,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6413,7 +6413,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6430,7 +6430,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6447,7 +6447,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6464,7 +6464,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6481,7 +6481,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6498,7 +6498,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6515,7 +6515,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="10" t="s">
         <v>7</v>
       </c>
@@ -6540,7 +6540,7 @@
       <c r="N175" s="17"/>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
@@ -6559,7 +6559,7 @@
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6576,7 +6576,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6593,7 +6593,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6610,7 +6610,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6627,7 +6627,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6644,7 +6644,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6661,7 +6661,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6678,7 +6678,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6695,7 +6695,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6712,7 +6712,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6729,7 +6729,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6746,7 +6746,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6763,7 +6763,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6780,7 +6780,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6797,7 +6797,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6814,7 +6814,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6831,7 +6831,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6848,7 +6848,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6865,7 +6865,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6882,7 +6882,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6899,7 +6899,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6916,7 +6916,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6933,7 +6933,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6950,7 +6950,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6967,7 +6967,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6984,7 +6984,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7001,7 +7001,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -7018,7 +7018,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A204" s="10" t="s">
         <v>7</v>
       </c>
@@ -7043,7 +7043,7 @@
       <c r="N204" s="17"/>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="15"/>
@@ -7062,7 +7062,7 @@
       <c r="N205" s="17"/>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7079,7 +7079,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7096,7 +7096,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7113,7 +7113,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7130,7 +7130,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7147,7 +7147,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7164,7 +7164,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7181,7 +7181,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7198,7 +7198,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7215,7 +7215,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7232,7 +7232,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7249,7 +7249,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7266,7 +7266,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7283,7 +7283,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7300,7 +7300,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7317,7 +7317,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7334,7 +7334,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7351,7 +7351,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7368,7 +7368,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7385,7 +7385,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7402,7 +7402,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7419,7 +7419,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7436,7 +7436,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7453,7 +7453,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7470,7 +7470,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7487,7 +7487,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7504,7 +7504,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7521,7 +7521,7 @@
       <c r="N232" s="5"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A233" s="10" t="s">
         <v>7</v>
       </c>
@@ -7546,7 +7546,7 @@
       <c r="N233" s="17"/>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="15"/>
@@ -7565,7 +7565,7 @@
       <c r="N234" s="17"/>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7582,7 +7582,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7599,7 +7599,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7616,7 +7616,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7633,7 +7633,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7650,7 +7650,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7667,7 +7667,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7684,7 +7684,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7701,7 +7701,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7718,7 +7718,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7735,7 +7735,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7752,7 +7752,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7769,7 +7769,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7786,7 +7786,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7803,7 +7803,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7820,7 +7820,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7837,7 +7837,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7854,7 +7854,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7871,7 +7871,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7888,7 +7888,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7904,7 +7904,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7921,7 +7921,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7938,7 +7938,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7955,7 +7955,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7972,7 +7972,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7989,7 +7989,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8006,7 +8006,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -8023,7 +8023,7 @@
       <c r="N261" s="5"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A262" s="10" t="s">
         <v>7</v>
       </c>
@@ -8048,7 +8048,7 @@
       <c r="N262" s="17"/>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="15"/>
@@ -8067,7 +8067,7 @@
       <c r="N263" s="17"/>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8084,7 +8084,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8101,7 +8101,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8118,7 +8118,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8135,7 +8135,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8152,7 +8152,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8169,7 +8169,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8186,7 +8186,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8203,7 +8203,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8220,7 +8220,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8237,7 +8237,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8254,7 +8254,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8271,7 +8271,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8288,7 +8288,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8305,7 +8305,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8322,7 +8322,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8339,7 +8339,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8356,7 +8356,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8372,7 +8372,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8389,7 +8389,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8406,7 +8406,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8423,7 +8423,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8440,7 +8440,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8457,7 +8457,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8474,7 +8474,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8491,7 +8491,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8508,7 +8508,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8525,7 +8525,7 @@
       <c r="N290" s="5"/>
       <c r="O290" s="6"/>
     </row>
-    <row r="291" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="s">
         <v>7</v>
       </c>
@@ -8550,7 +8550,7 @@
       <c r="N291" s="17"/>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A292" s="13"/>
       <c r="B292" s="14"/>
       <c r="C292" s="15"/>
@@ -8569,7 +8569,7 @@
       <c r="N292" s="17"/>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8586,7 +8586,7 @@
       <c r="N293" s="2"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8603,7 +8603,7 @@
       <c r="N294" s="2"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8620,7 +8620,7 @@
       <c r="N295" s="2"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8637,7 +8637,7 @@
       <c r="N296" s="2"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8654,7 +8654,7 @@
       <c r="N297" s="2"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8670,7 +8670,7 @@
       <c r="N298" s="2"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8687,7 +8687,7 @@
       <c r="N299" s="2"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8704,7 +8704,7 @@
       <c r="N300" s="2"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8721,7 +8721,7 @@
       <c r="N301" s="2"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -8738,7 +8738,7 @@
       <c r="N302" s="2"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -8755,7 +8755,7 @@
       <c r="N303" s="2"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -8772,7 +8772,7 @@
       <c r="N304" s="2"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -8789,7 +8789,7 @@
       <c r="N305" s="2"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -8806,7 +8806,7 @@
       <c r="N306" s="2"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -8823,7 +8823,7 @@
       <c r="N307" s="2"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -8840,7 +8840,7 @@
       <c r="N308" s="2"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -8857,7 +8857,7 @@
       <c r="N309" s="2"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -8874,7 +8874,7 @@
       <c r="N310" s="2"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -8891,7 +8891,7 @@
       <c r="N311" s="2"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -8908,7 +8908,7 @@
       <c r="N312" s="2"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -8925,7 +8925,7 @@
       <c r="N313" s="2"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -8942,7 +8942,7 @@
       <c r="N314" s="2"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -8959,7 +8959,7 @@
       <c r="N315" s="2"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -8976,7 +8976,7 @@
       <c r="N316" s="2"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -8993,7 +8993,7 @@
       <c r="N317" s="2"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9010,7 +9010,7 @@
       <c r="N318" s="2"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -9029,61 +9029,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A262:C263"/>
+    <mergeCell ref="D262:F263"/>
+    <mergeCell ref="G262:L263"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
     <mergeCell ref="A291:C292"/>
     <mergeCell ref="D291:F292"/>
     <mergeCell ref="G291:L292"/>
     <mergeCell ref="M291:O291"/>
     <mergeCell ref="M292:O292"/>
-    <mergeCell ref="A262:C263"/>
-    <mergeCell ref="D262:F263"/>
-    <mergeCell ref="G262:L263"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9116,19 +9116,19 @@
       <selection activeCell="U190" sqref="U190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
@@ -9143,13 +9143,13 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -9162,7 +9162,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -9179,7 +9179,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9196,7 +9196,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9213,7 +9213,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -9230,7 +9230,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -9247,7 +9247,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -9264,7 +9264,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -9281,7 +9281,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -9298,7 +9298,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9315,7 +9315,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -9332,7 +9332,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -9349,7 +9349,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -9366,7 +9366,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -9383,7 +9383,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -9400,7 +9400,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9417,7 +9417,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -9434,7 +9434,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -9451,7 +9451,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9468,7 +9468,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9485,7 +9485,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9502,7 +9502,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9519,7 +9519,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9536,7 +9536,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9553,7 +9553,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9570,7 +9570,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9587,7 +9587,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9604,7 +9604,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9621,7 +9621,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -9638,17 +9638,17 @@
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="10" t="s">
         <v>1</v>
       </c>
@@ -9663,13 +9663,13 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -9682,7 +9682,7 @@
       <c r="N32" s="17"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9699,7 +9699,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9716,7 +9716,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9733,7 +9733,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9750,7 +9750,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9767,7 +9767,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9784,7 +9784,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9801,7 +9801,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9818,7 +9818,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9835,7 +9835,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9852,7 +9852,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9869,7 +9869,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9886,7 +9886,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9903,7 +9903,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9920,7 +9920,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9937,7 +9937,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9954,7 +9954,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9971,7 +9971,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9988,7 +9988,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -10005,7 +10005,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -10022,7 +10022,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -10039,7 +10039,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -10056,7 +10056,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -10073,7 +10073,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -10090,7 +10090,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -10107,7 +10107,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -10124,7 +10124,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -10141,17 +10141,17 @@
       <c r="N59" s="5"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="10" t="s">
         <v>1</v>
       </c>
@@ -10166,13 +10166,13 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
       <c r="G61" s="13"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -10185,7 +10185,7 @@
       <c r="N61" s="17"/>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -10202,7 +10202,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -10219,7 +10219,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -10236,7 +10236,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -10253,7 +10253,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -10270,7 +10270,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -10287,7 +10287,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -10304,7 +10304,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -10321,7 +10321,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -10338,7 +10338,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -10355,7 +10355,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -10372,7 +10372,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -10389,7 +10389,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -10406,7 +10406,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -10423,7 +10423,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -10440,7 +10440,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -10457,7 +10457,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -10474,7 +10474,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -10491,7 +10491,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -10508,7 +10508,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -10525,7 +10525,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -10542,7 +10542,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -10559,7 +10559,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -10576,7 +10576,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -10593,7 +10593,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -10610,7 +10610,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -10627,7 +10627,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -10644,17 +10644,17 @@
       <c r="N88" s="5"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="27"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="10" t="s">
         <v>1</v>
       </c>
@@ -10669,13 +10669,13 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="30"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="24"/>
       <c r="G90" s="13"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
@@ -10688,7 +10688,7 @@
       <c r="N90" s="17"/>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -10705,7 +10705,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -10722,7 +10722,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -10739,7 +10739,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -10756,7 +10756,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -10773,7 +10773,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -10790,7 +10790,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10807,7 +10807,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -10824,7 +10824,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10841,7 +10841,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10858,7 +10858,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10875,7 +10875,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10892,7 +10892,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10909,7 +10909,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10926,7 +10926,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10943,7 +10943,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10960,7 +10960,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10977,7 +10977,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10994,7 +10994,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -11011,7 +11011,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -11028,7 +11028,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -11045,7 +11045,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -11062,7 +11062,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -11079,7 +11079,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -11096,7 +11096,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -11113,7 +11113,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -11130,7 +11130,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -11147,17 +11147,17 @@
       <c r="N117" s="5"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="26"/>
-      <c r="F118" s="27"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="21"/>
       <c r="G118" s="10" t="s">
         <v>1</v>
       </c>
@@ -11172,13 +11172,13 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="30"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="24"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
@@ -11191,7 +11191,7 @@
       <c r="N119" s="17"/>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -11208,7 +11208,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -11225,7 +11225,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -11242,7 +11242,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -11259,7 +11259,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -11276,7 +11276,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11293,7 +11293,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -11310,7 +11310,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -11327,7 +11327,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -11344,7 +11344,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11361,7 +11361,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -11378,7 +11378,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -11395,7 +11395,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -11412,7 +11412,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -11429,7 +11429,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -11446,7 +11446,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -11463,7 +11463,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -11480,7 +11480,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -11497,7 +11497,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -11514,7 +11514,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -11531,7 +11531,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -11548,7 +11548,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -11565,7 +11565,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -11582,7 +11582,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -11599,7 +11599,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -11616,7 +11616,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -11633,7 +11633,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -11650,17 +11650,17 @@
       <c r="N146" s="5"/>
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
-      <c r="D147" s="25" t="s">
+      <c r="D147" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E147" s="26"/>
-      <c r="F147" s="27"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="21"/>
       <c r="G147" s="10" t="s">
         <v>1</v>
       </c>
@@ -11675,13 +11675,13 @@
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="15"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="30"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="24"/>
       <c r="G148" s="13"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
@@ -11694,7 +11694,7 @@
       <c r="N148" s="17"/>
       <c r="O148" s="18"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -11711,7 +11711,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -11728,7 +11728,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -11745,7 +11745,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -11762,7 +11762,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -11779,7 +11779,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -11796,7 +11796,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -11813,7 +11813,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -11830,7 +11830,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -11847,7 +11847,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -11864,7 +11864,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -11881,7 +11881,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -11898,7 +11898,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -11915,7 +11915,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -11932,7 +11932,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -11949,7 +11949,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -11966,7 +11966,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -11983,7 +11983,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -12000,7 +12000,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -12017,7 +12017,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -12034,7 +12034,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -12051,7 +12051,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -12068,7 +12068,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -12085,7 +12085,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -12102,7 +12102,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -12119,7 +12119,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -12136,7 +12136,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -12153,17 +12153,17 @@
       <c r="N175" s="5"/>
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A176" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="12"/>
-      <c r="D176" s="19" t="s">
+      <c r="D176" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E176" s="20"/>
-      <c r="F176" s="21"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="27"/>
       <c r="G176" s="10" t="s">
         <v>1</v>
       </c>
@@ -12178,13 +12178,13 @@
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="24"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="30"/>
       <c r="G177" s="13"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
@@ -12197,7 +12197,7 @@
       <c r="N177" s="17"/>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -12214,7 +12214,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -12231,7 +12231,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -12248,7 +12248,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -12265,7 +12265,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -12282,7 +12282,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -12299,7 +12299,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -12316,7 +12316,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -12333,7 +12333,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -12350,7 +12350,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -12367,7 +12367,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -12384,7 +12384,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -12401,7 +12401,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -12418,7 +12418,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -12435,7 +12435,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -12452,7 +12452,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -12469,7 +12469,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -12486,7 +12486,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -12503,7 +12503,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -12520,7 +12520,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -12537,7 +12537,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -12554,7 +12554,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -12571,7 +12571,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -12588,7 +12588,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -12605,7 +12605,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -12622,7 +12622,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -12639,7 +12639,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -12656,7 +12656,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -12675,41 +12675,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A176:C177"/>
+    <mergeCell ref="D176:F177"/>
+    <mergeCell ref="G176:L177"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="M177:O177"/>
+    <mergeCell ref="A147:C148"/>
+    <mergeCell ref="D147:F148"/>
+    <mergeCell ref="G147:L148"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="M148:O148"/>
+    <mergeCell ref="A89:C90"/>
+    <mergeCell ref="D89:F90"/>
+    <mergeCell ref="G89:L90"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="A118:C119"/>
+    <mergeCell ref="D118:F119"/>
+    <mergeCell ref="G118:L119"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="D60:F61"/>
+    <mergeCell ref="G60:L61"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="D60:F61"/>
-    <mergeCell ref="G60:L61"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A118:C119"/>
-    <mergeCell ref="D118:F119"/>
-    <mergeCell ref="G118:L119"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="A89:C90"/>
-    <mergeCell ref="D89:F90"/>
-    <mergeCell ref="G89:L90"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="A147:C148"/>
-    <mergeCell ref="D147:F148"/>
-    <mergeCell ref="G147:L148"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="M148:O148"/>
-    <mergeCell ref="A176:C177"/>
-    <mergeCell ref="D176:F177"/>
-    <mergeCell ref="G176:L177"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="M177:O177"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12733,13 +12733,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:F31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
@@ -12764,7 +12764,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -12783,7 +12783,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -12800,7 +12800,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -12817,7 +12817,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -12834,7 +12834,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12851,7 +12851,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -12868,7 +12868,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12885,7 +12885,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -12902,7 +12902,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -12919,7 +12919,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12936,7 +12936,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -12953,7 +12953,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -12970,7 +12970,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -12987,7 +12987,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -13004,7 +13004,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -13021,7 +13021,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -13038,7 +13038,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -13055,7 +13055,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -13072,7 +13072,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -13089,7 +13089,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13106,7 +13106,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -13123,7 +13123,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -13140,7 +13140,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -13157,7 +13157,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13174,7 +13174,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -13191,7 +13191,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -13208,7 +13208,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -13225,7 +13225,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -13242,7 +13242,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
         <v>18</v>
       </c>
@@ -13267,7 +13267,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -13286,7 +13286,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -13303,7 +13303,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -13320,7 +13320,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -13337,7 +13337,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -13354,7 +13354,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -13371,7 +13371,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -13388,7 +13388,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -13405,7 +13405,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -13422,7 +13422,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -13439,7 +13439,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -13456,7 +13456,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -13473,7 +13473,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -13490,7 +13490,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -13507,7 +13507,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -13524,7 +13524,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -13541,7 +13541,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -13558,7 +13558,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -13575,7 +13575,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -13592,7 +13592,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -13609,7 +13609,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -13626,7 +13626,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -13643,7 +13643,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -13660,7 +13660,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -13677,7 +13677,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -13694,7 +13694,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -13711,7 +13711,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -13728,7 +13728,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -13745,7 +13745,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>18</v>
       </c>
@@ -13770,7 +13770,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -13789,7 +13789,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -13806,7 +13806,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -13823,7 +13823,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -13840,7 +13840,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -13857,7 +13857,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -13874,7 +13874,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -13891,7 +13891,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -13908,7 +13908,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -13925,7 +13925,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -13942,7 +13942,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -13959,7 +13959,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -13976,7 +13976,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -13993,7 +13993,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -14010,7 +14010,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -14027,7 +14027,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -14044,7 +14044,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -14061,7 +14061,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -14078,7 +14078,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -14095,7 +14095,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -14112,7 +14112,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -14129,7 +14129,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -14146,7 +14146,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -14163,7 +14163,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -14180,7 +14180,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -14197,7 +14197,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -14214,7 +14214,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -14231,7 +14231,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -14248,7 +14248,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="10" t="s">
         <v>18</v>
       </c>
@@ -14273,7 +14273,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -14292,7 +14292,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -14309,7 +14309,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -14326,7 +14326,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -14343,7 +14343,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -14360,7 +14360,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -14377,7 +14377,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -14394,7 +14394,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -14411,7 +14411,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -14428,7 +14428,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -14445,7 +14445,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -14462,7 +14462,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -14479,7 +14479,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -14496,7 +14496,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -14513,7 +14513,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -14530,7 +14530,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -14547,7 +14547,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -14564,7 +14564,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -14581,7 +14581,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -14598,7 +14598,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -14615,7 +14615,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -14632,7 +14632,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -14649,7 +14649,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -14666,7 +14666,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -14683,7 +14683,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -14700,7 +14700,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -14717,7 +14717,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -14736,26 +14736,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14781,9 +14781,9 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
@@ -14808,7 +14808,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -14827,7 +14827,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14844,7 +14844,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14861,7 +14861,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14878,7 +14878,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -14895,7 +14895,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -14912,7 +14912,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -14929,7 +14929,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14946,7 +14946,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -14963,7 +14963,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -14980,7 +14980,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -14997,7 +14997,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -15014,7 +15014,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -15031,7 +15031,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -15048,7 +15048,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -15065,7 +15065,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -15082,7 +15082,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -15099,7 +15099,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -15116,7 +15116,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -15133,7 +15133,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -15150,7 +15150,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -15167,7 +15167,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -15184,7 +15184,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -15201,7 +15201,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -15218,7 +15218,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -15235,7 +15235,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -15252,7 +15252,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -15269,7 +15269,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -15313,9 +15313,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
@@ -15338,7 +15338,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -15357,7 +15357,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -15374,7 +15374,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -15391,7 +15391,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15408,7 +15408,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -15425,7 +15425,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -15442,7 +15442,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -15459,7 +15459,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -15478,7 +15478,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -15495,7 +15495,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -15512,7 +15512,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -15529,7 +15529,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -15546,7 +15546,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -15563,7 +15563,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -15580,7 +15580,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -15597,7 +15597,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -15614,7 +15614,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -15631,7 +15631,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -15648,7 +15648,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -15665,7 +15665,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -15682,7 +15682,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -15699,7 +15699,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -15716,7 +15716,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -15733,7 +15733,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -15750,7 +15750,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -15767,7 +15767,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -15784,7 +15784,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -15801,7 +15801,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>

--- a/設計書/Book1.xlsx
+++ b/設計書/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="9165" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="9165" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -686,6 +686,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,24 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2089,82 +2089,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>97194</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>106913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>583164</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>201416</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="97194" y="9340331"/>
-          <a:ext cx="10147041" cy="3010320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>456812</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>97194</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>126571</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>29159</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="456812" y="1798087"/>
-          <a:ext cx="9330830" cy="3819720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>194387</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
@@ -2183,7 +2107,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2221,7 +2145,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2259,7 +2183,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2268,6 +2192,82 @@
         <a:xfrm>
           <a:off x="631760" y="43270715"/>
           <a:ext cx="9039029" cy="6085372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>77757</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>194388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>573446</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>162478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="77757" y="9427806"/>
+          <a:ext cx="10156760" cy="2883907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417934</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139147</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="417934" y="1982756"/>
+          <a:ext cx="9382284" cy="3897475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2509,19 +2509,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
+      <xdr:colOff>314664</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:rowOff>119064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>46181</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280647</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2534,8 +2534,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1350818" y="958273"/>
-          <a:ext cx="7250545" cy="5276272"/>
+          <a:off x="1692387" y="1088573"/>
+          <a:ext cx="6854599" cy="5287834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9029,61 +9029,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A291:C292"/>
+    <mergeCell ref="D291:F292"/>
+    <mergeCell ref="G291:L292"/>
+    <mergeCell ref="M291:O291"/>
+    <mergeCell ref="M292:O292"/>
+    <mergeCell ref="A262:C263"/>
+    <mergeCell ref="D262:F263"/>
+    <mergeCell ref="G262:L263"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
     <mergeCell ref="A233:C234"/>
     <mergeCell ref="D233:F234"/>
     <mergeCell ref="G233:L234"/>
     <mergeCell ref="M233:O233"/>
     <mergeCell ref="M234:O234"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A262:C263"/>
-    <mergeCell ref="D262:F263"/>
-    <mergeCell ref="G262:L263"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
-    <mergeCell ref="A291:C292"/>
-    <mergeCell ref="D291:F292"/>
-    <mergeCell ref="G291:L292"/>
-    <mergeCell ref="M291:O291"/>
-    <mergeCell ref="M292:O292"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9112,8 +9112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="U190" sqref="U190"/>
+    <sheetView topLeftCell="A233" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9124,11 +9124,11 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
@@ -9147,9 +9147,9 @@
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -9644,11 +9644,11 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="10" t="s">
         <v>1</v>
       </c>
@@ -9667,9 +9667,9 @@
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -10147,11 +10147,11 @@
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="10" t="s">
         <v>1</v>
       </c>
@@ -10170,9 +10170,9 @@
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="24"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="13"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -10650,11 +10650,11 @@
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="20"/>
-      <c r="F89" s="21"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="27"/>
       <c r="G89" s="10" t="s">
         <v>1</v>
       </c>
@@ -10673,9 +10673,9 @@
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="24"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="30"/>
       <c r="G90" s="13"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
@@ -11153,11 +11153,11 @@
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="20"/>
-      <c r="F118" s="21"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="27"/>
       <c r="G118" s="10" t="s">
         <v>1</v>
       </c>
@@ -11176,9 +11176,9 @@
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="24"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="30"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
@@ -11656,11 +11656,11 @@
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
-      <c r="D147" s="19" t="s">
+      <c r="D147" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E147" s="20"/>
-      <c r="F147" s="21"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="27"/>
       <c r="G147" s="10" t="s">
         <v>1</v>
       </c>
@@ -11679,9 +11679,9 @@
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="15"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="24"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="30"/>
       <c r="G148" s="13"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
@@ -12159,11 +12159,11 @@
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="12"/>
-      <c r="D176" s="25" t="s">
+      <c r="D176" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E176" s="26"/>
-      <c r="F176" s="27"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="21"/>
       <c r="G176" s="10" t="s">
         <v>1</v>
       </c>
@@ -12182,9 +12182,9 @@
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="30"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="24"/>
       <c r="G177" s="13"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
@@ -12675,41 +12675,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="D60:F61"/>
+    <mergeCell ref="G60:L61"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A118:C119"/>
+    <mergeCell ref="D118:F119"/>
+    <mergeCell ref="G118:L119"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="A89:C90"/>
+    <mergeCell ref="D89:F90"/>
+    <mergeCell ref="G89:L90"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="A147:C148"/>
+    <mergeCell ref="D147:F148"/>
+    <mergeCell ref="G147:L148"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="M148:O148"/>
     <mergeCell ref="A176:C177"/>
     <mergeCell ref="D176:F177"/>
     <mergeCell ref="G176:L177"/>
     <mergeCell ref="M176:O176"/>
     <mergeCell ref="M177:O177"/>
-    <mergeCell ref="A147:C148"/>
-    <mergeCell ref="D147:F148"/>
-    <mergeCell ref="G147:L148"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="M148:O148"/>
-    <mergeCell ref="A89:C90"/>
-    <mergeCell ref="D89:F90"/>
-    <mergeCell ref="G89:L90"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="A118:C119"/>
-    <mergeCell ref="D118:F119"/>
-    <mergeCell ref="G118:L119"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="D60:F61"/>
-    <mergeCell ref="G60:L61"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12733,7 +12733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
@@ -14736,26 +14736,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
     <mergeCell ref="A88:C89"/>
     <mergeCell ref="D88:F89"/>
     <mergeCell ref="G88:L89"/>
     <mergeCell ref="M88:O88"/>
     <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14777,8 +14777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/設計書/Book1.xlsx
+++ b/設計書/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\授業用\sotuken\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="9165" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -686,6 +686,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,24 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,6 +804,120 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312860</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>35983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="41211500"/>
+          <a:ext cx="9499193" cy="5623983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7450667"/>
+          <a:ext cx="9525000" cy="5590646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>543345</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="211667" y="836083"/>
+          <a:ext cx="9518011" cy="5630335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>145143</xdr:colOff>
       <xdr:row>263</xdr:row>
       <xdr:rowOff>217713</xdr:rowOff>
@@ -822,7 +936,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -877,7 +991,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -915,7 +1029,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -952,50 +1066,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="91440" y="40452040"/>
-          <a:ext cx="9872980" cy="5991860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -1014,7 +1084,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1037,62 +1107,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>166915</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66504</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71482</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>160563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>464095</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>58884</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="166915" y="7207533"/>
-          <a:ext cx="9745980" cy="5935980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>230232</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>224064</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>291192</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>155485</xdr:rowOff>
+      <xdr:colOff>132442</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>91985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1101,8 +1127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7514589" y="12515850"/>
-          <a:ext cx="2047603" cy="384992"/>
+          <a:off x="7289315" y="12500730"/>
+          <a:ext cx="2029460" cy="397088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,50 +1169,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>174172</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>463732</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="174172" y="616131"/>
-          <a:ext cx="9738360" cy="5841077"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1815,16 +1797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563033</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>210359</xdr:rowOff>
+      <xdr:rowOff>62192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>561570</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>141779</xdr:rowOff>
+      <xdr:colOff>233487</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>226445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1833,8 +1815,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7499350" y="45828759"/>
-          <a:ext cx="2307820" cy="388620"/>
+          <a:off x="7124700" y="46396025"/>
+          <a:ext cx="2295120" cy="397087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2816,9 +2798,9 @@
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -2835,7 +2817,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
@@ -2852,7 +2834,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="7" t="s">
         <v>24</v>
       </c>
@@ -2861,14 +2843,14 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" t="s">
         <v>28</v>
       </c>
@@ -2883,7 +2865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" t="s">
         <v>30</v>
       </c>
@@ -2898,7 +2880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" t="s">
         <v>31</v>
       </c>
@@ -2913,7 +2895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" t="s">
         <v>32</v>
       </c>
@@ -2928,7 +2910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" t="s">
         <v>33</v>
       </c>
@@ -2975,14 +2957,14 @@
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="6" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="6" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +2989,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -3026,7 +3008,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3043,7 +3025,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3060,7 +3042,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3077,7 +3059,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3094,7 +3076,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3111,7 +3093,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3128,7 +3110,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3145,7 +3127,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3162,7 +3144,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3179,7 +3161,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3196,7 +3178,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3213,7 +3195,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3230,7 +3212,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3247,7 +3229,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3264,7 +3246,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3281,7 +3263,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3298,7 +3280,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3315,7 +3297,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3332,7 +3314,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3349,7 +3331,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3366,7 +3348,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3383,7 +3365,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3400,7 +3382,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3417,7 +3399,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3434,7 +3416,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3451,7 +3433,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3491,13 +3473,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O319"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="U281" sqref="U281"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A309" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="V325" sqref="V325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -3522,7 +3504,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -3541,7 +3523,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3558,7 +3540,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3575,7 +3557,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3592,7 +3574,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3609,7 +3591,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3626,7 +3608,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3643,7 +3625,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3660,7 +3642,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3677,7 +3659,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3694,7 +3676,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3711,7 +3693,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3728,7 +3710,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3745,7 +3727,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3762,7 +3744,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3779,7 +3761,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3796,7 +3778,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3813,7 +3795,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3830,7 +3812,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3847,7 +3829,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3864,7 +3846,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3881,7 +3863,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3898,7 +3880,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3915,7 +3897,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3932,7 +3914,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3949,7 +3931,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3966,7 +3948,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3983,7 +3965,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4000,7 +3982,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -4025,7 +4007,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -4044,7 +4026,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4061,7 +4043,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4078,7 +4060,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4095,7 +4077,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4112,7 +4094,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4129,7 +4111,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4146,7 +4128,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4163,7 +4145,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4180,7 +4162,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4197,7 +4179,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4214,7 +4196,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4231,7 +4213,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4248,7 +4230,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4265,7 +4247,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4282,7 +4264,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4299,7 +4281,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4316,7 +4298,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4333,7 +4315,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4350,7 +4332,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4367,7 +4349,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4384,7 +4366,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4401,7 +4383,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4418,7 +4400,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4435,7 +4417,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4452,7 +4434,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4469,7 +4451,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4486,7 +4468,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4503,7 +4485,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
@@ -4528,7 +4510,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -4547,7 +4529,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4564,7 +4546,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4581,7 +4563,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4598,7 +4580,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4615,7 +4597,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4632,7 +4614,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4649,7 +4631,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4666,7 +4648,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4683,7 +4665,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4700,7 +4682,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4717,7 +4699,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4734,7 +4716,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4751,7 +4733,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4768,7 +4750,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4785,7 +4767,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4802,7 +4784,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4819,7 +4801,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4836,7 +4818,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4853,7 +4835,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4870,7 +4852,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4887,7 +4869,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4904,7 +4886,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4921,7 +4903,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4938,7 +4920,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4955,7 +4937,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4972,7 +4954,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4989,7 +4971,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5006,7 +4988,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="10" t="s">
         <v>7</v>
       </c>
@@ -5031,7 +5013,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -5050,7 +5032,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5067,7 +5049,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5084,7 +5066,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5101,7 +5083,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5118,7 +5100,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5135,7 +5117,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5152,7 +5134,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5169,7 +5151,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5186,7 +5168,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5203,7 +5185,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5220,7 +5202,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5237,7 +5219,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5254,7 +5236,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5271,7 +5253,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5288,7 +5270,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5305,7 +5287,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5322,7 +5304,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5339,7 +5321,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5356,7 +5338,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5373,7 +5355,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5390,7 +5372,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5407,7 +5389,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5424,7 +5406,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5441,7 +5423,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5458,7 +5440,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5475,7 +5457,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5492,7 +5474,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5509,7 +5491,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A117" s="10" t="s">
         <v>7</v>
       </c>
@@ -5534,7 +5516,7 @@
       <c r="N117" s="17"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -5553,7 +5535,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5570,7 +5552,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5587,7 +5569,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5604,7 +5586,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5621,7 +5603,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5638,7 +5620,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5655,7 +5637,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5672,7 +5654,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5689,7 +5671,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5706,7 +5688,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5723,7 +5705,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5740,7 +5722,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5757,7 +5739,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5774,7 +5756,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5791,7 +5773,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5808,7 +5790,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5825,7 +5807,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5842,7 +5824,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5859,7 +5841,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5876,7 +5858,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5893,7 +5875,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5910,7 +5892,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5927,7 +5909,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5944,7 +5926,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5961,7 +5943,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5978,7 +5960,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5995,7 +5977,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6012,7 +5994,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A146" s="10" t="s">
         <v>7</v>
       </c>
@@ -6037,7 +6019,7 @@
       <c r="N146" s="17"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
@@ -6056,7 +6038,7 @@
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6073,7 +6055,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6090,7 +6072,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6107,7 +6089,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6124,7 +6106,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6141,7 +6123,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6158,7 +6140,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6175,7 +6157,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6192,7 +6174,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6209,7 +6191,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6226,7 +6208,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6243,7 +6225,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6260,7 +6242,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6277,7 +6259,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6294,7 +6276,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6311,7 +6293,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6328,7 +6310,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6345,7 +6327,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6362,7 +6344,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6379,7 +6361,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6396,7 +6378,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6413,7 +6395,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6430,7 +6412,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6447,7 +6429,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6464,7 +6446,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6481,7 +6463,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6498,7 +6480,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6515,7 +6497,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A175" s="10" t="s">
         <v>7</v>
       </c>
@@ -6540,7 +6522,7 @@
       <c r="N175" s="17"/>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
@@ -6559,7 +6541,7 @@
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6576,7 +6558,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6593,7 +6575,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6610,7 +6592,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6627,7 +6609,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6644,7 +6626,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6661,7 +6643,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6678,7 +6660,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6695,7 +6677,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6712,7 +6694,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6729,7 +6711,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6746,7 +6728,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6763,7 +6745,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6780,7 +6762,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6797,7 +6779,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6814,7 +6796,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6831,7 +6813,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6848,7 +6830,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6865,7 +6847,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6882,7 +6864,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6899,7 +6881,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6916,7 +6898,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6933,7 +6915,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6950,7 +6932,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6967,7 +6949,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6984,7 +6966,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7001,7 +6983,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -7018,7 +7000,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A204" s="10" t="s">
         <v>7</v>
       </c>
@@ -7043,7 +7025,7 @@
       <c r="N204" s="17"/>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="15"/>
@@ -7062,7 +7044,7 @@
       <c r="N205" s="17"/>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7079,7 +7061,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7096,7 +7078,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7113,7 +7095,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7130,7 +7112,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7147,7 +7129,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7164,7 +7146,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7181,7 +7163,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7198,7 +7180,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7215,7 +7197,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7232,7 +7214,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7249,7 +7231,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7266,7 +7248,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7283,7 +7265,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7300,7 +7282,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7317,7 +7299,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7334,7 +7316,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7351,7 +7333,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7368,7 +7350,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7385,7 +7367,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7402,7 +7384,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7419,7 +7401,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7436,7 +7418,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7453,7 +7435,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7470,7 +7452,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7487,7 +7469,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7504,7 +7486,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7521,7 +7503,7 @@
       <c r="N232" s="5"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A233" s="10" t="s">
         <v>7</v>
       </c>
@@ -7546,7 +7528,7 @@
       <c r="N233" s="17"/>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="15"/>
@@ -7565,7 +7547,7 @@
       <c r="N234" s="17"/>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7582,7 +7564,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7599,7 +7581,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7616,7 +7598,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7633,7 +7615,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7650,7 +7632,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7667,7 +7649,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7684,7 +7666,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7701,7 +7683,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7718,7 +7700,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7735,7 +7717,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7752,7 +7734,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7769,7 +7751,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7786,7 +7768,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7803,7 +7785,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7820,7 +7802,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7837,7 +7819,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7854,7 +7836,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7871,7 +7853,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7888,7 +7870,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7904,7 +7886,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7921,7 +7903,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7938,7 +7920,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7955,7 +7937,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7972,7 +7954,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7989,7 +7971,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8006,7 +7988,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -8023,7 +8005,7 @@
       <c r="N261" s="5"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A262" s="10" t="s">
         <v>7</v>
       </c>
@@ -8048,7 +8030,7 @@
       <c r="N262" s="17"/>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="15"/>
@@ -8067,7 +8049,7 @@
       <c r="N263" s="17"/>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8084,7 +8066,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8101,7 +8083,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8118,7 +8100,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8135,7 +8117,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8152,7 +8134,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8169,7 +8151,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8186,7 +8168,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8203,7 +8185,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8220,7 +8202,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8237,7 +8219,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8254,7 +8236,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8271,7 +8253,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8288,7 +8270,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8305,7 +8287,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8322,7 +8304,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8339,7 +8321,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8356,7 +8338,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8372,7 +8354,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8389,7 +8371,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8406,7 +8388,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8423,7 +8405,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8440,7 +8422,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8457,7 +8439,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8474,7 +8456,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8491,7 +8473,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8508,7 +8490,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8525,7 +8507,7 @@
       <c r="N290" s="5"/>
       <c r="O290" s="6"/>
     </row>
-    <row r="291" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A291" s="10" t="s">
         <v>7</v>
       </c>
@@ -8550,7 +8532,7 @@
       <c r="N291" s="17"/>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A292" s="13"/>
       <c r="B292" s="14"/>
       <c r="C292" s="15"/>
@@ -8569,7 +8551,7 @@
       <c r="N292" s="17"/>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8586,7 +8568,7 @@
       <c r="N293" s="2"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8603,7 +8585,7 @@
       <c r="N294" s="2"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8620,7 +8602,7 @@
       <c r="N295" s="2"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8637,7 +8619,7 @@
       <c r="N296" s="2"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8654,7 +8636,7 @@
       <c r="N297" s="2"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8670,7 +8652,7 @@
       <c r="N298" s="2"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8687,7 +8669,7 @@
       <c r="N299" s="2"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8704,7 +8686,7 @@
       <c r="N300" s="2"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8721,7 +8703,7 @@
       <c r="N301" s="2"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -8738,7 +8720,7 @@
       <c r="N302" s="2"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -8755,7 +8737,7 @@
       <c r="N303" s="2"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -8772,7 +8754,7 @@
       <c r="N304" s="2"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -8789,7 +8771,7 @@
       <c r="N305" s="2"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -8806,7 +8788,7 @@
       <c r="N306" s="2"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -8823,7 +8805,7 @@
       <c r="N307" s="2"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -8840,7 +8822,7 @@
       <c r="N308" s="2"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -8857,7 +8839,7 @@
       <c r="N309" s="2"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -8874,7 +8856,7 @@
       <c r="N310" s="2"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -8891,7 +8873,7 @@
       <c r="N311" s="2"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -8908,7 +8890,7 @@
       <c r="N312" s="2"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -8925,7 +8907,7 @@
       <c r="N313" s="2"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -8942,7 +8924,7 @@
       <c r="N314" s="2"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -8959,7 +8941,7 @@
       <c r="N315" s="2"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -8976,7 +8958,7 @@
       <c r="N316" s="2"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -8993,7 +8975,7 @@
       <c r="N317" s="2"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9010,7 +8992,7 @@
       <c r="N318" s="2"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -9029,61 +9011,61 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A262:C263"/>
+    <mergeCell ref="D262:F263"/>
+    <mergeCell ref="G262:L263"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
     <mergeCell ref="A291:C292"/>
     <mergeCell ref="D291:F292"/>
     <mergeCell ref="G291:L292"/>
     <mergeCell ref="M291:O291"/>
     <mergeCell ref="M292:O292"/>
-    <mergeCell ref="A262:C263"/>
-    <mergeCell ref="D262:F263"/>
-    <mergeCell ref="G262:L263"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9116,19 +9098,19 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
@@ -9143,13 +9125,13 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -9162,7 +9144,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -9179,7 +9161,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9196,7 +9178,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9213,7 +9195,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -9230,7 +9212,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -9247,7 +9229,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -9264,7 +9246,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -9281,7 +9263,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -9298,7 +9280,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9315,7 +9297,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -9332,7 +9314,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -9349,7 +9331,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -9366,7 +9348,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -9383,7 +9365,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -9400,7 +9382,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9417,7 +9399,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -9434,7 +9416,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -9451,7 +9433,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9468,7 +9450,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9485,7 +9467,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9502,7 +9484,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9519,7 +9501,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9536,7 +9518,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9553,7 +9535,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9570,7 +9552,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9587,7 +9569,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9604,7 +9586,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9621,7 +9603,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -9638,17 +9620,17 @@
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="10" t="s">
         <v>1</v>
       </c>
@@ -9663,13 +9645,13 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -9682,7 +9664,7 @@
       <c r="N32" s="17"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9699,7 +9681,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9716,7 +9698,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9733,7 +9715,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9750,7 +9732,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9767,7 +9749,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9784,7 +9766,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9801,7 +9783,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9818,7 +9800,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9835,7 +9817,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9852,7 +9834,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9869,7 +9851,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9886,7 +9868,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9903,7 +9885,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9920,7 +9902,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9937,7 +9919,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9954,7 +9936,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9971,7 +9953,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9988,7 +9970,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -10005,7 +9987,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -10022,7 +10004,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -10039,7 +10021,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -10056,7 +10038,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -10073,7 +10055,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -10090,7 +10072,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -10107,7 +10089,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -10124,7 +10106,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -10141,17 +10123,17 @@
       <c r="N59" s="5"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="10" t="s">
         <v>1</v>
       </c>
@@ -10166,13 +10148,13 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
       <c r="G61" s="13"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -10185,7 +10167,7 @@
       <c r="N61" s="17"/>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -10202,7 +10184,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -10219,7 +10201,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -10236,7 +10218,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -10253,7 +10235,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -10270,7 +10252,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -10287,7 +10269,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -10304,7 +10286,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -10321,7 +10303,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -10338,7 +10320,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -10355,7 +10337,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -10372,7 +10354,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -10389,7 +10371,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -10406,7 +10388,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -10423,7 +10405,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -10440,7 +10422,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -10457,7 +10439,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -10474,7 +10456,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -10491,7 +10473,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -10508,7 +10490,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -10525,7 +10507,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -10542,7 +10524,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -10559,7 +10541,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -10576,7 +10558,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -10593,7 +10575,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -10610,7 +10592,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -10627,7 +10609,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -10644,17 +10626,17 @@
       <c r="N88" s="5"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="27"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="10" t="s">
         <v>1</v>
       </c>
@@ -10669,13 +10651,13 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="30"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="24"/>
       <c r="G90" s="13"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
@@ -10688,7 +10670,7 @@
       <c r="N90" s="17"/>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -10705,7 +10687,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -10722,7 +10704,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -10739,7 +10721,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -10756,7 +10738,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -10773,7 +10755,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -10790,7 +10772,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10807,7 +10789,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -10824,7 +10806,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10841,7 +10823,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10858,7 +10840,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10875,7 +10857,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10892,7 +10874,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10909,7 +10891,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10926,7 +10908,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10943,7 +10925,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10960,7 +10942,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10977,7 +10959,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10994,7 +10976,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -11011,7 +10993,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -11028,7 +11010,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -11045,7 +11027,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -11062,7 +11044,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -11079,7 +11061,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -11096,7 +11078,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -11113,7 +11095,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -11130,7 +11112,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -11147,17 +11129,17 @@
       <c r="N117" s="5"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A118" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="26"/>
-      <c r="F118" s="27"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="21"/>
       <c r="G118" s="10" t="s">
         <v>1</v>
       </c>
@@ -11172,13 +11154,13 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="30"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="24"/>
       <c r="G119" s="13"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
@@ -11191,7 +11173,7 @@
       <c r="N119" s="17"/>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -11208,7 +11190,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -11225,7 +11207,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -11242,7 +11224,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -11259,7 +11241,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -11276,7 +11258,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11293,7 +11275,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -11310,7 +11292,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -11327,7 +11309,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -11344,7 +11326,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11361,7 +11343,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -11378,7 +11360,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -11395,7 +11377,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -11412,7 +11394,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -11429,7 +11411,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -11446,7 +11428,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -11463,7 +11445,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -11480,7 +11462,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -11497,7 +11479,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -11514,7 +11496,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -11531,7 +11513,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -11548,7 +11530,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -11565,7 +11547,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -11582,7 +11564,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -11599,7 +11581,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -11616,7 +11598,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -11633,7 +11615,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -11650,17 +11632,17 @@
       <c r="N146" s="5"/>
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A147" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
-      <c r="D147" s="25" t="s">
+      <c r="D147" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E147" s="26"/>
-      <c r="F147" s="27"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="21"/>
       <c r="G147" s="10" t="s">
         <v>1</v>
       </c>
@@ -11675,13 +11657,13 @@
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="15"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="30"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="24"/>
       <c r="G148" s="13"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
@@ -11694,7 +11676,7 @@
       <c r="N148" s="17"/>
       <c r="O148" s="18"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -11711,7 +11693,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -11728,7 +11710,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -11745,7 +11727,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -11762,7 +11744,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -11779,7 +11761,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -11796,7 +11778,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -11813,7 +11795,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -11830,7 +11812,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -11847,7 +11829,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -11864,7 +11846,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -11881,7 +11863,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -11898,7 +11880,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -11915,7 +11897,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -11932,7 +11914,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -11949,7 +11931,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -11966,7 +11948,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -11983,7 +11965,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -12000,7 +11982,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -12017,7 +11999,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -12034,7 +12016,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -12051,7 +12033,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -12068,7 +12050,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -12085,7 +12067,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -12102,7 +12084,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -12119,7 +12101,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -12136,7 +12118,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -12153,17 +12135,17 @@
       <c r="N175" s="5"/>
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A176" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="12"/>
-      <c r="D176" s="19" t="s">
+      <c r="D176" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E176" s="20"/>
-      <c r="F176" s="21"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="27"/>
       <c r="G176" s="10" t="s">
         <v>1</v>
       </c>
@@ -12178,13 +12160,13 @@
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="24"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="30"/>
       <c r="G177" s="13"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
@@ -12197,7 +12179,7 @@
       <c r="N177" s="17"/>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -12214,7 +12196,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -12231,7 +12213,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -12248,7 +12230,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -12265,7 +12247,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -12282,7 +12264,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -12299,7 +12281,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -12316,7 +12298,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -12333,7 +12315,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -12350,7 +12332,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -12367,7 +12349,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -12384,7 +12366,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -12401,7 +12383,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -12418,7 +12400,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -12435,7 +12417,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -12452,7 +12434,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -12469,7 +12451,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -12486,7 +12468,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -12503,7 +12485,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -12520,7 +12502,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -12537,7 +12519,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -12554,7 +12536,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -12571,7 +12553,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -12588,7 +12570,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -12605,7 +12587,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -12622,7 +12604,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -12639,7 +12621,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -12656,7 +12638,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -12675,41 +12657,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A176:C177"/>
+    <mergeCell ref="D176:F177"/>
+    <mergeCell ref="G176:L177"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="M177:O177"/>
+    <mergeCell ref="A147:C148"/>
+    <mergeCell ref="D147:F148"/>
+    <mergeCell ref="G147:L148"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="M148:O148"/>
+    <mergeCell ref="A89:C90"/>
+    <mergeCell ref="D89:F90"/>
+    <mergeCell ref="G89:L90"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M90:O90"/>
+    <mergeCell ref="A118:C119"/>
+    <mergeCell ref="D118:F119"/>
+    <mergeCell ref="G118:L119"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="D60:F61"/>
+    <mergeCell ref="G60:L61"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="D60:F61"/>
-    <mergeCell ref="G60:L61"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A118:C119"/>
-    <mergeCell ref="D118:F119"/>
-    <mergeCell ref="G118:L119"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="A89:C90"/>
-    <mergeCell ref="D89:F90"/>
-    <mergeCell ref="G89:L90"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M90:O90"/>
-    <mergeCell ref="A147:C148"/>
-    <mergeCell ref="D147:F148"/>
-    <mergeCell ref="G147:L148"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="M148:O148"/>
-    <mergeCell ref="A176:C177"/>
-    <mergeCell ref="D176:F177"/>
-    <mergeCell ref="G176:L177"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="M177:O177"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12737,9 +12719,9 @@
       <selection activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
@@ -12764,7 +12746,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -12783,7 +12765,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -12800,7 +12782,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -12817,7 +12799,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -12834,7 +12816,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12851,7 +12833,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -12868,7 +12850,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12885,7 +12867,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -12902,7 +12884,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -12919,7 +12901,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12936,7 +12918,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -12953,7 +12935,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -12970,7 +12952,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -12987,7 +12969,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -13004,7 +12986,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -13021,7 +13003,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -13038,7 +13020,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -13055,7 +13037,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -13072,7 +13054,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -13089,7 +13071,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13106,7 +13088,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -13123,7 +13105,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -13140,7 +13122,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -13157,7 +13139,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13174,7 +13156,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -13191,7 +13173,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -13208,7 +13190,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -13225,7 +13207,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -13242,7 +13224,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="10" t="s">
         <v>18</v>
       </c>
@@ -13267,7 +13249,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -13286,7 +13268,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -13303,7 +13285,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -13320,7 +13302,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -13337,7 +13319,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -13354,7 +13336,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -13371,7 +13353,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -13388,7 +13370,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -13405,7 +13387,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -13422,7 +13404,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -13439,7 +13421,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -13456,7 +13438,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -13473,7 +13455,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -13490,7 +13472,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -13507,7 +13489,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -13524,7 +13506,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -13541,7 +13523,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -13558,7 +13540,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -13575,7 +13557,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -13592,7 +13574,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -13609,7 +13591,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -13626,7 +13608,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -13643,7 +13625,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -13660,7 +13642,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -13677,7 +13659,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -13694,7 +13676,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -13711,7 +13693,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -13728,7 +13710,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -13745,7 +13727,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="10" t="s">
         <v>18</v>
       </c>
@@ -13770,7 +13752,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -13789,7 +13771,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -13806,7 +13788,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -13823,7 +13805,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -13840,7 +13822,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -13857,7 +13839,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -13874,7 +13856,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -13891,7 +13873,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -13908,7 +13890,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -13925,7 +13907,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -13942,7 +13924,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -13959,7 +13941,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -13976,7 +13958,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -13993,7 +13975,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -14010,7 +13992,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -14027,7 +14009,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -14044,7 +14026,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -14061,7 +14043,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -14078,7 +14060,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -14095,7 +14077,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -14112,7 +14094,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -14129,7 +14111,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -14146,7 +14128,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -14163,7 +14145,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -14180,7 +14162,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -14197,7 +14179,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -14214,7 +14196,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -14231,7 +14213,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -14248,7 +14230,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="10" t="s">
         <v>18</v>
       </c>
@@ -14273,7 +14255,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -14292,7 +14274,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -14309,7 +14291,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -14326,7 +14308,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -14343,7 +14325,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -14360,7 +14342,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -14377,7 +14359,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -14394,7 +14376,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -14411,7 +14393,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -14428,7 +14410,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -14445,7 +14427,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -14462,7 +14444,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -14479,7 +14461,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -14496,7 +14478,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -14513,7 +14495,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -14530,7 +14512,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -14547,7 +14529,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -14564,7 +14546,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -14581,7 +14563,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -14598,7 +14580,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -14615,7 +14597,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -14632,7 +14614,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -14649,7 +14631,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -14666,7 +14648,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -14683,7 +14665,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -14700,7 +14682,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -14717,7 +14699,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -14736,26 +14718,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14777,13 +14759,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
@@ -14808,7 +14790,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -14827,7 +14809,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14844,7 +14826,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14861,7 +14843,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14878,7 +14860,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -14895,7 +14877,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -14912,7 +14894,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -14929,7 +14911,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14946,7 +14928,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -14963,7 +14945,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -14980,7 +14962,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -14997,7 +14979,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -15014,7 +14996,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -15031,7 +15013,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -15048,7 +15030,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -15065,7 +15047,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -15082,7 +15064,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -15099,7 +15081,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -15116,7 +15098,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -15133,7 +15115,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -15150,7 +15132,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -15167,7 +15149,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -15184,7 +15166,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -15201,7 +15183,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -15218,7 +15200,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -15235,7 +15217,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -15252,7 +15234,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -15269,7 +15251,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -15313,9 +15295,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
@@ -15338,7 +15320,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -15357,7 +15339,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -15374,7 +15356,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -15391,7 +15373,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15408,7 +15390,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -15425,7 +15407,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -15442,7 +15424,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -15459,7 +15441,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -15478,7 +15460,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -15495,7 +15477,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -15512,7 +15494,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -15529,7 +15511,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -15546,7 +15528,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -15563,7 +15545,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -15580,7 +15562,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -15597,7 +15579,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -15614,7 +15596,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -15631,7 +15613,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -15648,7 +15630,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -15665,7 +15647,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -15682,7 +15664,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -15699,7 +15681,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -15716,7 +15698,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -15733,7 +15715,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -15750,7 +15732,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -15767,7 +15749,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -15784,7 +15766,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -15801,7 +15783,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
